--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/54_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/54_11R22.xlsx
@@ -755,100 +755,100 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1481908664939793</v>
+        <v>0.124644175938417</v>
       </c>
       <c r="M2">
-        <v>0.02812090352601898</v>
+        <v>0.03175503718722875</v>
       </c>
       <c r="N2">
-        <v>0.1370082054254122</v>
+        <v>0.115992988497951</v>
       </c>
       <c r="O2">
-        <v>0.00363777919049452</v>
+        <v>0.01281427733980562</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>9.06159350017947E-05</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00793182845378429</v>
       </c>
       <c r="R2">
-        <v>0.036962553270281</v>
+        <v>0.03859515947579245</v>
       </c>
       <c r="S2">
-        <v>0.06744471792616342</v>
+        <v>0.06217692757305072</v>
       </c>
       <c r="T2">
-        <v>0.05786042713115704</v>
+        <v>0.0547622795171781</v>
       </c>
       <c r="U2">
-        <v>0.02896692511654058</v>
+        <v>0.03240954073637561</v>
       </c>
       <c r="V2">
-        <v>0.07752175722254161</v>
+        <v>0.069972778244315</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.003837619405165615</v>
       </c>
       <c r="X2">
-        <v>0.09368034632863149</v>
+        <v>0.08247346857849575</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.001372999877853884</v>
       </c>
       <c r="Z2">
-        <v>0.1009934747985656</v>
+        <v>0.08813108842243823</v>
       </c>
       <c r="AA2">
-        <v>0.02601995864546872</v>
+        <v>0.03012969346516808</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.003699212654417156</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.0001621146318871093</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.0002910323879359048</v>
       </c>
       <c r="AE2">
-        <v>0.01610528524338017</v>
+        <v>0.02245945312733212</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.001297558410471997</v>
       </c>
       <c r="AG2">
-        <v>0.1226123683287161</v>
+        <v>0.1048560073874351</v>
       </c>
       <c r="AH2">
-        <v>0.01682675008514151</v>
+        <v>0.02301759644755914</v>
       </c>
       <c r="AI2">
-        <v>0.007554991916533423</v>
+        <v>0.01584473148031404</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.008160599321728393</v>
       </c>
       <c r="AK2">
-        <v>0.005339824392089847</v>
+        <v>0.01413102225238605</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.001404681866852471</v>
       </c>
       <c r="AM2">
-        <v>0.02515286495888441</v>
+        <v>0.02945888801330913</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.0032358583924201</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.00590264526006402</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>2.397365672861122E-05</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.008964146061136682</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -886,100 +886,100 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08350278304330025</v>
+        <v>0.07377253147745182</v>
       </c>
       <c r="M3">
-        <v>0.007955913547845212</v>
+        <v>0.01607606990654131</v>
       </c>
       <c r="N3">
-        <v>0.2635404019195997</v>
+        <v>0.2112704003923189</v>
       </c>
       <c r="O3">
-        <v>0.06197322632138894</v>
+        <v>0.05733003359050464</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.004904000786162094</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.009739724533625363</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.009817260578173706</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.0009354908612582309</v>
       </c>
       <c r="T3">
-        <v>0.09899911576847177</v>
+        <v>0.08560735099464824</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0005282961181834853</v>
       </c>
       <c r="V3">
-        <v>0.128976672291456</v>
+        <v>0.1085017336404071</v>
       </c>
       <c r="W3">
-        <v>0.004143346103083621</v>
+        <v>0.0131643456679026</v>
       </c>
       <c r="X3">
-        <v>0.01316718335977072</v>
+        <v>0.02005600753264631</v>
       </c>
       <c r="Y3">
-        <v>0.03226245357053233</v>
+        <v>0.03463939836352171</v>
       </c>
       <c r="Z3">
-        <v>0.0001012970341986435</v>
+        <v>0.01007736231136938</v>
       </c>
       <c r="AA3">
-        <v>0.1175966397556526</v>
+        <v>0.09981060435519967</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.0001704505550385129</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.006009269776144189</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.002576989646994997</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.007551717052242663</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.006848574661714953</v>
       </c>
       <c r="AG3">
-        <v>0.05723064911596557</v>
+        <v>0.0537080446807425</v>
       </c>
       <c r="AH3">
-        <v>0.09011694850946524</v>
+        <v>0.07882388497748255</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.001101583460674038</v>
       </c>
       <c r="AJ3">
-        <v>0.01686132764460687</v>
+        <v>0.02287728993906384</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>0.005553966429852443</v>
       </c>
       <c r="AL3">
-        <v>0.0003082317176486914</v>
+        <v>0.01023540193751276</v>
       </c>
       <c r="AM3">
-        <v>0.01986118262959685</v>
+        <v>0.02516833150062306</v>
       </c>
       <c r="AN3">
-        <v>0.003402627667417083</v>
+        <v>0.01259864608241719</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.004348333650134983</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.001308579369990282</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.004888325169456568</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1017,100 +1017,100 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1193709503249718</v>
+        <v>0.09831669277681253</v>
       </c>
       <c r="M4">
-        <v>0.007873279081833573</v>
+        <v>0.01582505180635173</v>
       </c>
       <c r="N4">
-        <v>0.1583867147776357</v>
+        <v>0.1271825372158307</v>
       </c>
       <c r="O4">
-        <v>0.0114572865908792</v>
+        <v>0.01847668261958114</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00480704665960033</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.009034171156222539</v>
       </c>
       <c r="R4">
-        <v>0.0129899076221484</v>
+        <v>0.01961059351158119</v>
       </c>
       <c r="S4">
-        <v>8.471901944922141E-05</v>
+        <v>0.01006267943408912</v>
       </c>
       <c r="T4">
-        <v>0.09377016016685748</v>
+        <v>0.07937592776587296</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.006285788134006368</v>
       </c>
       <c r="V4">
-        <v>0.1268171613597717</v>
+        <v>0.1038257779480492</v>
       </c>
       <c r="W4">
-        <v>0.004822195687063038</v>
+        <v>0.0135677053239889</v>
       </c>
       <c r="X4">
-        <v>0.01091199665862206</v>
+        <v>0.01807324942842082</v>
       </c>
       <c r="Y4">
-        <v>0.01702413363118816</v>
+        <v>0.02259531884100715</v>
       </c>
       <c r="Z4">
-        <v>0.05295129664226665</v>
+        <v>0.04917605904081197</v>
       </c>
       <c r="AA4">
-        <v>0.09318129138640148</v>
+        <v>0.07894025272912569</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.0001533490233310932</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.00589247977717051</v>
       </c>
       <c r="AD4">
-        <v>0.002686737152736487</v>
+        <v>0.01198778462468718</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.00373473900177227</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.002631095780442792</v>
       </c>
       <c r="AG4">
-        <v>0.1181530529288579</v>
+        <v>0.09741563041722294</v>
       </c>
       <c r="AH4">
-        <v>0.08316813811298854</v>
+        <v>0.07153201329593299</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.007778395007325622</v>
       </c>
       <c r="AJ4">
-        <v>0.01457188823079066</v>
+        <v>0.02078102312625693</v>
       </c>
       <c r="AK4">
-        <v>0.006980854666725834</v>
+        <v>0.01516479089127121</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.0007735251534683633</v>
       </c>
       <c r="AM4">
-        <v>0.05450497251377709</v>
+        <v>0.05032554737315231</v>
       </c>
       <c r="AN4">
-        <v>0.002791344607643968</v>
+        <v>0.01206517853360788</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.009054788643471047</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>3.824326133118951E-06</v>
       </c>
       <c r="AQ4">
-        <v>0.007501918837390856</v>
+        <v>0.0155503006334015</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1145,100 +1145,100 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.003338447538727708</v>
+        <v>0.01253837002190802</v>
       </c>
       <c r="L5">
-        <v>0.1242065356902016</v>
+        <v>0.1044397487345904</v>
       </c>
       <c r="M5">
-        <v>0.09843427803647074</v>
+        <v>0.08484395593981985</v>
       </c>
       <c r="N5">
-        <v>0.1235887783696749</v>
+        <v>0.1039700403911019</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.003025601795405512</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00237964609681244</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.009870014368893554</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.008127515108835555</v>
       </c>
       <c r="S5">
-        <v>0.07205244797635196</v>
+        <v>0.06478467815551216</v>
       </c>
       <c r="T5">
-        <v>0.02300980352226031</v>
+        <v>0.02749537615713393</v>
       </c>
       <c r="U5">
-        <v>0.1101141319947381</v>
+        <v>0.0937246679486203</v>
       </c>
       <c r="V5">
-        <v>0.04735257147700851</v>
+        <v>0.04600426440827141</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.008799269707154575</v>
       </c>
       <c r="X5">
-        <v>0.04728640144603014</v>
+        <v>0.04595395239316985</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.003909853799997452</v>
       </c>
       <c r="Z5">
-        <v>0.1044920589124071</v>
+        <v>0.08944995594323001</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.002776060789935414</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.002158948084109721</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.0005796598014263203</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.008906899375348869</v>
       </c>
       <c r="AE5">
-        <v>0.01215831102140075</v>
+        <v>0.01924450417618941</v>
       </c>
       <c r="AF5">
-        <v>0.03509214044845884</v>
+        <v>0.03668211385250682</v>
       </c>
       <c r="AG5">
-        <v>0.1177321389810156</v>
+        <v>0.0995169771990518</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.001579881754106604</v>
       </c>
       <c r="AI5">
-        <v>0.02380479201075162</v>
+        <v>0.02809984123365191</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.00243633944331195</v>
       </c>
       <c r="AK5">
-        <v>0.01448593023776771</v>
+        <v>0.02101429650412117</v>
       </c>
       <c r="AL5">
-        <v>0.02872420502858455</v>
+        <v>0.03184028956629521</v>
       </c>
       <c r="AM5">
-        <v>0.0141270273081497</v>
+        <v>0.02074140665734391</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.004182205087298147</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>0.003769909296010075</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.007153756208835726</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1279,100 +1279,100 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1104359488344994</v>
+        <v>0.09248474330721594</v>
       </c>
       <c r="M6">
-        <v>0.02885098847905856</v>
+        <v>0.03154883807283564</v>
       </c>
       <c r="N6">
-        <v>0.1500572926296104</v>
+        <v>0.122077972748513</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.00479491625187038</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.002698331310644468</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.006062074777695521</v>
       </c>
       <c r="R6">
-        <v>0.005028418070700999</v>
+        <v>0.01375573151840904</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.008693404344043964</v>
       </c>
       <c r="T6">
-        <v>0.07455329601816285</v>
+        <v>0.06568394666469315</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.008303326193298478</v>
       </c>
       <c r="V6">
-        <v>0.1494261279096919</v>
+        <v>0.1216065550583814</v>
       </c>
       <c r="W6">
-        <v>0.002689664021367601</v>
+        <v>0.01200891329975928</v>
       </c>
       <c r="X6">
-        <v>0.05344523897956083</v>
+        <v>0.04991831341829091</v>
       </c>
       <c r="Y6">
-        <v>0.02204757305960203</v>
+        <v>0.02646735889500729</v>
       </c>
       <c r="Z6">
-        <v>0.07005554092745729</v>
+        <v>0.06232456796571941</v>
       </c>
       <c r="AA6">
-        <v>0.07292455953029336</v>
+        <v>0.06446744141857676</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.003516180208987975</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.004575549965474717</v>
       </c>
       <c r="AD6">
-        <v>0.001901637714809414</v>
+        <v>0.01142033550148097</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.00721306347003378</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.002814820063658006</v>
       </c>
       <c r="AG6">
-        <v>0.1153347624174815</v>
+        <v>0.09614367307751866</v>
       </c>
       <c r="AH6">
-        <v>0.07671412165209802</v>
+        <v>0.06729786993540186</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.009851109097728987</v>
       </c>
       <c r="AJ6">
-        <v>0.01107888561808563</v>
+        <v>0.01827483302296147</v>
       </c>
       <c r="AK6">
-        <v>0.004500683829745107</v>
+        <v>0.01336156617769277</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>3.650561676278285E-05</v>
       </c>
       <c r="AM6">
-        <v>0.04765249957951822</v>
+        <v>0.0455917093776613</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>0.006707540141836981</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>0.007785908200292907</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>4.606492837252676E-05</v>
       </c>
       <c r="AQ6">
-        <v>0.003302760728256813</v>
+        <v>0.01246683596917956</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1410,100 +1410,100 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.007014360046448008</v>
+        <v>0.01522727774945864</v>
       </c>
       <c r="M7">
-        <v>0.0974426769440703</v>
+        <v>0.08261673676066277</v>
       </c>
       <c r="N7">
-        <v>0.03829181134631242</v>
+        <v>0.03853602211913924</v>
       </c>
       <c r="O7">
-        <v>0.03863168926138203</v>
+        <v>0.03878930770060514</v>
       </c>
       <c r="P7">
-        <v>0.02211291391406406</v>
+        <v>0.02647910031895426</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.007621828760478901</v>
       </c>
       <c r="R7">
-        <v>0.005417248504673968</v>
+        <v>0.01403707000841936</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.001183421024265835</v>
       </c>
       <c r="T7">
-        <v>0.0910378924978108</v>
+        <v>0.07784373009942576</v>
       </c>
       <c r="U7">
-        <v>4.584052927937962E-06</v>
+        <v>0.01000341615168224</v>
       </c>
       <c r="V7">
-        <v>0.08135910920912008</v>
+        <v>0.07063085705159509</v>
       </c>
       <c r="W7">
-        <v>0.09632267526569795</v>
+        <v>0.08178208330490284</v>
       </c>
       <c r="X7">
-        <v>0.00416101329760439</v>
+        <v>0.01310089189630111</v>
       </c>
       <c r="Y7">
-        <v>0.1057198746892379</v>
+        <v>0.08878511296528799</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.0002995391195988861</v>
       </c>
       <c r="AA7">
-        <v>0.137997203574993</v>
+        <v>0.1128389912919224</v>
       </c>
       <c r="AB7">
-        <v>0.004578341631926988</v>
+        <v>0.01341189548063064</v>
       </c>
       <c r="AC7">
-        <v>0.0237523798562445</v>
+        <v>0.02770087162578857</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.00234890500358808</v>
       </c>
       <c r="AE7">
-        <v>0.01644133304479217</v>
+        <v>0.02225249542757674</v>
       </c>
       <c r="AF7">
-        <v>0.005095063471377618</v>
+        <v>0.01379696960801128</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.0002480165977222257</v>
       </c>
       <c r="AH7">
-        <v>0.1083803677348976</v>
+        <v>0.09076777938219212</v>
       </c>
       <c r="AI7">
-        <v>0.04553253693453661</v>
+        <v>0.04393199317089991</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>0.008484215519256551</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>0.006040587635824127</v>
       </c>
       <c r="AL7">
-        <v>0.01209943674127287</v>
+        <v>0.01901680496008551</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>0.001348325251974653</v>
       </c>
       <c r="AN7">
-        <v>0.05860748798060861</v>
+        <v>0.05367577595732859</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>0.008363623443456727</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.004969233017530591</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.003867121595433103</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1517,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.002546516987737106</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07296679655629715</v>
+        <v>0.0797160888274963</v>
       </c>
       <c r="F8">
-        <v>0.01271357143120702</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0556025148199548</v>
+        <v>0.0567428351560752</v>
       </c>
       <c r="H8">
-        <v>0.02403359294625013</v>
+        <v>0.01497658986301434</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1541,70 +1541,70 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06011796986710038</v>
+        <v>0.06271686251954882</v>
       </c>
       <c r="M8">
-        <v>0.01309529824417835</v>
+        <v>0.0005050313650013842</v>
       </c>
       <c r="N8">
-        <v>0.0455730450949188</v>
+        <v>0.04347366827191568</v>
       </c>
       <c r="O8">
-        <v>0.1219095958350772</v>
+        <v>0.144468283032432</v>
       </c>
       <c r="P8">
-        <v>0.008527515490255964</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.0674218737243827</v>
+        <v>0.07238005726913839</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.1171516996519359</v>
+        <v>0.1381735017326778</v>
       </c>
       <c r="T8">
-        <v>0.04083046157893452</v>
+        <v>0.03719914590324344</v>
       </c>
       <c r="U8">
-        <v>0.02477131199872139</v>
+        <v>0.0159526052944613</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.0382570446346106</v>
+        <v>0.0337944695013078</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.000301688669124426</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.09536844075210024</v>
+        <v>0.1093538626543282</v>
       </c>
       <c r="AA8">
-        <v>0.1094589227336522</v>
+        <v>0.1279958210048016</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.01305447927945875</v>
+        <v>0.0004510271484523284</v>
       </c>
       <c r="AD8">
-        <v>0.01525385301629045</v>
+        <v>0.003360837732137266</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.05711154786616662</v>
+        <v>0.05873931272396819</v>
       </c>
       <c r="AG8">
-        <v>0.003932258821645536</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1663,100 +1663,100 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.124873735701614</v>
+        <v>0.1030620125115983</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0002737237451694789</v>
       </c>
       <c r="K9">
-        <v>0.06221859972376038</v>
+        <v>0.05636834217711227</v>
       </c>
       <c r="L9">
-        <v>0.03946337055520424</v>
+        <v>0.03941003297229612</v>
       </c>
       <c r="M9">
-        <v>0.00214875679533006</v>
+        <v>0.01160135860954149</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.0008472081337675472</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.00522998914968474</v>
       </c>
       <c r="P9">
-        <v>0.02898085476646421</v>
+        <v>0.03159794975076291</v>
       </c>
       <c r="Q9">
-        <v>0.05552245792047096</v>
+        <v>0.05137804995292359</v>
       </c>
       <c r="R9">
-        <v>0.005629272738975367</v>
+        <v>0.01419520924173773</v>
       </c>
       <c r="S9">
-        <v>0.1435492119756958</v>
+        <v>0.1169798904137343</v>
       </c>
       <c r="T9">
-        <v>0.006379810035730245</v>
+        <v>0.01475454632658255</v>
       </c>
       <c r="U9">
-        <v>0.01643488378052745</v>
+        <v>0.02224807884073209</v>
       </c>
       <c r="V9">
-        <v>0.04332923311477397</v>
+        <v>0.04229106274100951</v>
       </c>
       <c r="W9">
-        <v>0.04761321781091776</v>
+        <v>0.04548369756651571</v>
       </c>
       <c r="X9">
-        <v>0.09465510970487002</v>
+        <v>0.08054161512946131</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.008534361197057989</v>
       </c>
       <c r="Z9">
-        <v>0.006705908669096099</v>
+        <v>0.01499757097005781</v>
       </c>
       <c r="AA9">
-        <v>0.0262564249661575</v>
+        <v>0.02956757147515056</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.0001906526313480604</v>
       </c>
       <c r="AC9">
-        <v>0.03059368166792191</v>
+        <v>0.03279990720353861</v>
       </c>
       <c r="AD9">
-        <v>0.02004221511114424</v>
+        <v>0.02493643849888719</v>
       </c>
       <c r="AE9">
-        <v>0.1404900062541964</v>
+        <v>0.114700020755554</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.0001748656435988019</v>
       </c>
       <c r="AG9">
-        <v>0.03444816562877593</v>
+        <v>0.03567245708422674</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.003540129854103157</v>
       </c>
       <c r="AI9">
-        <v>0.002949924431145418</v>
+        <v>0.01219842789820515</v>
       </c>
       <c r="AJ9">
-        <v>0.02739792314178106</v>
+        <v>0.03041827171972148</v>
       </c>
       <c r="AK9">
-        <v>0.03092267786125832</v>
+        <v>0.03304509125035612</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.004678117635518362</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.001282065294532588</v>
       </c>
       <c r="AN9">
-        <v>0.009394557644188768</v>
+        <v>0.01700128362551363</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -1782,19 +1782,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02688972903352451</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.02279241037169129</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.03190917630639593</v>
+        <v>0.008919277991397634</v>
       </c>
       <c r="H10">
-        <v>0.06664982504565707</v>
+        <v>0.07065147416002253</v>
       </c>
       <c r="I10">
-        <v>0.01391903078250068</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1806,67 +1806,67 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.06196336407330023</v>
+        <v>0.06232389426209199</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.1323287288568335</v>
+        <v>0.1873592249174144</v>
       </c>
       <c r="P10">
-        <v>0.07954892982671335</v>
+        <v>0.09357246428660901</v>
       </c>
       <c r="Q10">
-        <v>0.008050184585627267</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.07359109109884322</v>
+        <v>0.0829857169909472</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.139947024986847</v>
+        <v>0.20089651245336</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.0379457875089651</v>
+        <v>0.01964599958337458</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.01363516326381145</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.01394325107748888</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.1443761485193361</v>
+        <v>0.2087668180660959</v>
       </c>
       <c r="AB10">
-        <v>0.01484827942506615</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.02820921123174992</v>
+        <v>0.002344646310815901</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.02996922916309271</v>
+        <v>0.005472100061417949</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.05900208752630526</v>
+        <v>0.05706187091645284</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.0004813473162503946</v>
+        <v>0</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -1934,100 +1934,100 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.124573856764804</v>
+        <v>0.1068550028946053</v>
       </c>
       <c r="M11">
-        <v>0.04131053865396742</v>
+        <v>0.04211855556870071</v>
       </c>
       <c r="N11">
-        <v>0.1666015025523139</v>
+        <v>0.1395311025202917</v>
       </c>
       <c r="O11">
-        <v>0.1299743375171703</v>
+        <v>0.1110538259260721</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.004709985768825671</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.005482735334080888</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.001389918275579222</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.002841158145297922</v>
       </c>
       <c r="T11">
-        <v>0.05887461055825308</v>
+        <v>0.05577445640785075</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.0002347370505512285</v>
       </c>
       <c r="V11">
-        <v>0.1519772144772338</v>
+        <v>0.1281608559803804</v>
       </c>
       <c r="W11">
-        <v>0.06523798038744739</v>
+        <v>0.06072191664735896</v>
       </c>
       <c r="X11">
-        <v>0.004556689081353451</v>
+        <v>0.01354278293717399</v>
       </c>
       <c r="Y11">
-        <v>0.0267410127758096</v>
+        <v>0.03079088612224353</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.004205740483171465</v>
       </c>
       <c r="AA11">
-        <v>0.0943479255713033</v>
+        <v>0.08335462545372824</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.002017498381532418</v>
       </c>
       <c r="AC11">
-        <v>0.01054337256473807</v>
+        <v>0.0181973730828981</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.004180688694489967</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.002148346814878502</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.009375124363640608</v>
       </c>
       <c r="AG11">
-        <v>0.00284664884276938</v>
+        <v>0.01221324272256336</v>
       </c>
       <c r="AH11">
-        <v>0.09214531662614328</v>
+        <v>0.08164211769889544</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.007663318141490708</v>
       </c>
       <c r="AJ11">
-        <v>0.004073005156020851</v>
+        <v>0.01316672323086972</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>0.0005243734746936956</v>
       </c>
       <c r="AL11">
-        <v>0.004495429751709915</v>
+        <v>0.01349515438408883</v>
       </c>
       <c r="AM11">
-        <v>0.0001879631924227047</v>
+        <v>0.01014613961563822</v>
       </c>
       <c r="AN11">
-        <v>0.02151259552653918</v>
+        <v>0.02672584084738804</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>0.0003922084936314392</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>0.0006383670620124077</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.006705197475376319</v>
       </c>
     </row>
   </sheetData>
@@ -2209,100 +2209,100 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1481908664939793</v>
+        <v>0.124644175938417</v>
       </c>
       <c r="M2">
-        <v>0.1763117700199982</v>
+        <v>0.1563992131256457</v>
       </c>
       <c r="N2">
-        <v>0.3133199754454105</v>
+        <v>0.2723922016235967</v>
       </c>
       <c r="O2">
-        <v>0.316957754635905</v>
+        <v>0.2852064789634023</v>
       </c>
       <c r="P2">
-        <v>0.316957754635905</v>
+        <v>0.2852970948984041</v>
       </c>
       <c r="Q2">
-        <v>0.316957754635905</v>
+        <v>0.2932289233521884</v>
       </c>
       <c r="R2">
-        <v>0.353920307906186</v>
+        <v>0.3318240828279809</v>
       </c>
       <c r="S2">
-        <v>0.4213650258323494</v>
+        <v>0.3940010104010316</v>
       </c>
       <c r="T2">
-        <v>0.4792254529635064</v>
+        <v>0.4487632899182097</v>
       </c>
       <c r="U2">
-        <v>0.508192378080047</v>
+        <v>0.4811728306545853</v>
       </c>
       <c r="V2">
-        <v>0.5857141353025886</v>
+        <v>0.5511456088989003</v>
       </c>
       <c r="W2">
-        <v>0.5857141353025886</v>
+        <v>0.5549832283040659</v>
       </c>
       <c r="X2">
-        <v>0.6793944816312202</v>
+        <v>0.6374566968825617</v>
       </c>
       <c r="Y2">
-        <v>0.6793944816312202</v>
+        <v>0.6388296967604156</v>
       </c>
       <c r="Z2">
-        <v>0.7803879564297858</v>
+        <v>0.7269607851828538</v>
       </c>
       <c r="AA2">
-        <v>0.8064079150752544</v>
+        <v>0.7570904786480219</v>
       </c>
       <c r="AB2">
-        <v>0.8064079150752544</v>
+        <v>0.7607896913024391</v>
       </c>
       <c r="AC2">
-        <v>0.8064079150752544</v>
+        <v>0.7609518059343262</v>
       </c>
       <c r="AD2">
-        <v>0.8064079150752544</v>
+        <v>0.7612428383222621</v>
       </c>
       <c r="AE2">
-        <v>0.8225132003186346</v>
+        <v>0.7837022914495942</v>
       </c>
       <c r="AF2">
-        <v>0.8225132003186346</v>
+        <v>0.7849998498600662</v>
       </c>
       <c r="AG2">
-        <v>0.9451255686473506</v>
+        <v>0.8898558572475013</v>
       </c>
       <c r="AH2">
-        <v>0.9619523187324921</v>
+        <v>0.9128734536950605</v>
       </c>
       <c r="AI2">
-        <v>0.9695073106490255</v>
+        <v>0.9287181851753745</v>
       </c>
       <c r="AJ2">
-        <v>0.9695073106490255</v>
+        <v>0.9368787844971029</v>
       </c>
       <c r="AK2">
-        <v>0.9748471350411153</v>
+        <v>0.951009806749489</v>
       </c>
       <c r="AL2">
-        <v>0.9748471350411153</v>
+        <v>0.9524144886163415</v>
       </c>
       <c r="AM2">
-        <v>0.9999999999999997</v>
+        <v>0.9818733766296506</v>
       </c>
       <c r="AN2">
-        <v>0.9999999999999997</v>
+        <v>0.9851092350220707</v>
       </c>
       <c r="AO2">
-        <v>0.9999999999999997</v>
+        <v>0.9910118802821347</v>
       </c>
       <c r="AP2">
-        <v>0.9999999999999997</v>
+        <v>0.9910358539388633</v>
       </c>
       <c r="AQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2340,97 +2340,97 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08350278304330025</v>
+        <v>0.07377253147745182</v>
       </c>
       <c r="M3">
-        <v>0.09145869659114546</v>
+        <v>0.08984860138399312</v>
       </c>
       <c r="N3">
-        <v>0.3549990985107452</v>
+        <v>0.301119001776312</v>
       </c>
       <c r="O3">
-        <v>0.4169723248321341</v>
+        <v>0.3584490353668167</v>
       </c>
       <c r="P3">
-        <v>0.4169723248321341</v>
+        <v>0.3633530361529788</v>
       </c>
       <c r="Q3">
-        <v>0.4169723248321341</v>
+        <v>0.3730927606866041</v>
       </c>
       <c r="R3">
-        <v>0.4169723248321341</v>
+        <v>0.3829100212647779</v>
       </c>
       <c r="S3">
-        <v>0.4169723248321341</v>
+        <v>0.3838455121260361</v>
       </c>
       <c r="T3">
-        <v>0.5159714406006058</v>
+        <v>0.4694528631206843</v>
       </c>
       <c r="U3">
-        <v>0.5159714406006058</v>
+        <v>0.4699811592388678</v>
       </c>
       <c r="V3">
-        <v>0.6449481128920619</v>
+        <v>0.5784828928792749</v>
       </c>
       <c r="W3">
-        <v>0.6490914589951455</v>
+        <v>0.5916472385471775</v>
       </c>
       <c r="X3">
-        <v>0.6622586423549163</v>
+        <v>0.6117032460798238</v>
       </c>
       <c r="Y3">
-        <v>0.6945210959254486</v>
+        <v>0.6463426444433455</v>
       </c>
       <c r="Z3">
-        <v>0.6946223929596472</v>
+        <v>0.6564200067547149</v>
       </c>
       <c r="AA3">
-        <v>0.8122190327152998</v>
+        <v>0.7562306111099146</v>
       </c>
       <c r="AB3">
-        <v>0.8122190327152998</v>
+        <v>0.7564010616649531</v>
       </c>
       <c r="AC3">
-        <v>0.8122190327152998</v>
+        <v>0.7624103314410974</v>
       </c>
       <c r="AD3">
-        <v>0.8122190327152998</v>
+        <v>0.7649873210880924</v>
       </c>
       <c r="AE3">
-        <v>0.8122190327152998</v>
+        <v>0.7725390381403351</v>
       </c>
       <c r="AF3">
-        <v>0.8122190327152998</v>
+        <v>0.77938761280205</v>
       </c>
       <c r="AG3">
-        <v>0.8694496818312654</v>
+        <v>0.8330956574827926</v>
       </c>
       <c r="AH3">
-        <v>0.9595666303407306</v>
+        <v>0.9119195424602751</v>
       </c>
       <c r="AI3">
-        <v>0.9595666303407306</v>
+        <v>0.9130211259209491</v>
       </c>
       <c r="AJ3">
-        <v>0.9764279579853375</v>
+        <v>0.9358984158600129</v>
       </c>
       <c r="AK3">
-        <v>0.9764279579853375</v>
+        <v>0.9414523822898653</v>
       </c>
       <c r="AL3">
-        <v>0.9767361897029863</v>
+        <v>0.951687784227378</v>
       </c>
       <c r="AM3">
-        <v>0.9965973723325831</v>
+        <v>0.976856115728001</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0.9894547618104182</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>0.9938030954605532</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.9951116748305435</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2471,100 +2471,100 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1193709503249718</v>
+        <v>0.09831669277681253</v>
       </c>
       <c r="M4">
-        <v>0.1272442294068054</v>
+        <v>0.1141417445831643</v>
       </c>
       <c r="N4">
-        <v>0.2856309441844411</v>
+        <v>0.2413242817989949</v>
       </c>
       <c r="O4">
-        <v>0.2970882307753203</v>
+        <v>0.2598009644185761</v>
       </c>
       <c r="P4">
-        <v>0.2970882307753203</v>
+        <v>0.2646080110781764</v>
       </c>
       <c r="Q4">
-        <v>0.2970882307753203</v>
+        <v>0.273642182234399</v>
       </c>
       <c r="R4">
-        <v>0.3100781383974687</v>
+        <v>0.2932527757459801</v>
       </c>
       <c r="S4">
-        <v>0.3101628574169179</v>
+        <v>0.3033154551800692</v>
       </c>
       <c r="T4">
-        <v>0.4039330175837754</v>
+        <v>0.3826913829459422</v>
       </c>
       <c r="U4">
-        <v>0.4039330175837754</v>
+        <v>0.3889771710799486</v>
       </c>
       <c r="V4">
-        <v>0.530750178943547</v>
+        <v>0.4928029490279978</v>
       </c>
       <c r="W4">
-        <v>0.53557237463061</v>
+        <v>0.5063706543519867</v>
       </c>
       <c r="X4">
-        <v>0.5464843712892321</v>
+        <v>0.5244439037804075</v>
       </c>
       <c r="Y4">
-        <v>0.5635085049204203</v>
+        <v>0.5470392226214147</v>
       </c>
       <c r="Z4">
-        <v>0.6164598015626869</v>
+        <v>0.5962152816622267</v>
       </c>
       <c r="AA4">
-        <v>0.7096410929490884</v>
+        <v>0.6751555343913525</v>
       </c>
       <c r="AB4">
-        <v>0.7096410929490884</v>
+        <v>0.6753088834146835</v>
       </c>
       <c r="AC4">
-        <v>0.7096410929490884</v>
+        <v>0.6812013631918541</v>
       </c>
       <c r="AD4">
-        <v>0.7123278301018249</v>
+        <v>0.6931891478165413</v>
       </c>
       <c r="AE4">
-        <v>0.7123278301018249</v>
+        <v>0.6969238868183135</v>
       </c>
       <c r="AF4">
-        <v>0.7123278301018249</v>
+        <v>0.6995549825987563</v>
       </c>
       <c r="AG4">
-        <v>0.8304808830306828</v>
+        <v>0.7969706130159792</v>
       </c>
       <c r="AH4">
-        <v>0.9136490211436713</v>
+        <v>0.8685026263119121</v>
       </c>
       <c r="AI4">
-        <v>0.9136490211436713</v>
+        <v>0.8762810213192377</v>
       </c>
       <c r="AJ4">
-        <v>0.928220909374462</v>
+        <v>0.8970620444454946</v>
       </c>
       <c r="AK4">
-        <v>0.9352017640411878</v>
+        <v>0.9122268353367659</v>
       </c>
       <c r="AL4">
-        <v>0.9352017640411878</v>
+        <v>0.9130003604902343</v>
       </c>
       <c r="AM4">
-        <v>0.9897067365549649</v>
+        <v>0.9633259078633866</v>
       </c>
       <c r="AN4">
-        <v>0.9924980811626088</v>
+        <v>0.9753910863969945</v>
       </c>
       <c r="AO4">
-        <v>0.9924980811626088</v>
+        <v>0.9844458750404655</v>
       </c>
       <c r="AP4">
-        <v>0.9924980811626088</v>
+        <v>0.9844496993665987</v>
       </c>
       <c r="AQ4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2599,103 +2599,103 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.003338447538727708</v>
+        <v>0.01253837002190802</v>
       </c>
       <c r="L5">
-        <v>0.1275449832289293</v>
+        <v>0.1169781187564985</v>
       </c>
       <c r="M5">
-        <v>0.2259792612654001</v>
+        <v>0.2018220746963183</v>
       </c>
       <c r="N5">
-        <v>0.3495680396350749</v>
+        <v>0.3057921150874202</v>
       </c>
       <c r="O5">
-        <v>0.3495680396350749</v>
+        <v>0.3088177168828257</v>
       </c>
       <c r="P5">
-        <v>0.3495680396350749</v>
+        <v>0.3111973629796381</v>
       </c>
       <c r="Q5">
-        <v>0.3495680396350749</v>
+        <v>0.3210673773485317</v>
       </c>
       <c r="R5">
-        <v>0.3495680396350749</v>
+        <v>0.3291948924573673</v>
       </c>
       <c r="S5">
-        <v>0.4216204876114269</v>
+        <v>0.3939795706128794</v>
       </c>
       <c r="T5">
-        <v>0.4446302911336872</v>
+        <v>0.4214749467700133</v>
       </c>
       <c r="U5">
-        <v>0.5547444231284253</v>
+        <v>0.5151996147186336</v>
       </c>
       <c r="V5">
-        <v>0.6020969946054339</v>
+        <v>0.5612038791269051</v>
       </c>
       <c r="W5">
-        <v>0.6020969946054339</v>
+        <v>0.5700031488340597</v>
       </c>
       <c r="X5">
-        <v>0.649383396051464</v>
+        <v>0.6159571012272296</v>
       </c>
       <c r="Y5">
-        <v>0.649383396051464</v>
+        <v>0.619866955027227</v>
       </c>
       <c r="Z5">
-        <v>0.7538754549638711</v>
+        <v>0.709316910970457</v>
       </c>
       <c r="AA5">
-        <v>0.7538754549638711</v>
+        <v>0.7120929717603924</v>
       </c>
       <c r="AB5">
-        <v>0.7538754549638711</v>
+        <v>0.7142519198445022</v>
       </c>
       <c r="AC5">
-        <v>0.7538754549638711</v>
+        <v>0.7148315796459285</v>
       </c>
       <c r="AD5">
-        <v>0.7538754549638711</v>
+        <v>0.7237384790212773</v>
       </c>
       <c r="AE5">
-        <v>0.7660337659852718</v>
+        <v>0.7429829831974667</v>
       </c>
       <c r="AF5">
-        <v>0.8011259064337307</v>
+        <v>0.7796650970499736</v>
       </c>
       <c r="AG5">
-        <v>0.9188580454147462</v>
+        <v>0.8791820742490254</v>
       </c>
       <c r="AH5">
-        <v>0.9188580454147462</v>
+        <v>0.880761956003132</v>
       </c>
       <c r="AI5">
-        <v>0.9426628374254978</v>
+        <v>0.908861797236784</v>
       </c>
       <c r="AJ5">
-        <v>0.9426628374254978</v>
+        <v>0.9112981366800958</v>
       </c>
       <c r="AK5">
-        <v>0.9571487676632655</v>
+        <v>0.932312433184217</v>
       </c>
       <c r="AL5">
-        <v>0.98587297269185</v>
+        <v>0.9641527227505122</v>
       </c>
       <c r="AM5">
-        <v>0.9999999999999998</v>
+        <v>0.9848941294078561</v>
       </c>
       <c r="AN5">
-        <v>0.9999999999999998</v>
+        <v>0.9890763344951543</v>
       </c>
       <c r="AO5">
-        <v>0.9999999999999998</v>
+        <v>0.9928462437911644</v>
       </c>
       <c r="AP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -2733,97 +2733,97 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1104359488344994</v>
+        <v>0.09248474330721594</v>
       </c>
       <c r="M6">
-        <v>0.139286937313558</v>
+        <v>0.1240335813800516</v>
       </c>
       <c r="N6">
-        <v>0.2893442299431684</v>
+        <v>0.2461115541285646</v>
       </c>
       <c r="O6">
-        <v>0.2893442299431684</v>
+        <v>0.250906470380435</v>
       </c>
       <c r="P6">
-        <v>0.2893442299431684</v>
+        <v>0.2536048016910794</v>
       </c>
       <c r="Q6">
-        <v>0.2893442299431684</v>
+        <v>0.259666876468775</v>
       </c>
       <c r="R6">
-        <v>0.2943726480138694</v>
+        <v>0.273422607987184</v>
       </c>
       <c r="S6">
-        <v>0.2943726480138694</v>
+        <v>0.282116012331228</v>
       </c>
       <c r="T6">
-        <v>0.3689259440320323</v>
+        <v>0.3477999589959211</v>
       </c>
       <c r="U6">
-        <v>0.3689259440320323</v>
+        <v>0.3561032851892196</v>
       </c>
       <c r="V6">
-        <v>0.5183520719417242</v>
+        <v>0.477709840247601</v>
       </c>
       <c r="W6">
-        <v>0.5210417359630918</v>
+        <v>0.4897187535473603</v>
       </c>
       <c r="X6">
-        <v>0.5744869749426527</v>
+        <v>0.5396370669656512</v>
       </c>
       <c r="Y6">
-        <v>0.5965345480022547</v>
+        <v>0.5661044258606585</v>
       </c>
       <c r="Z6">
-        <v>0.6665900889297119</v>
+        <v>0.6284289938263778</v>
       </c>
       <c r="AA6">
-        <v>0.7395146484600053</v>
+        <v>0.6928964352449546</v>
       </c>
       <c r="AB6">
-        <v>0.7395146484600053</v>
+        <v>0.6964126154539426</v>
       </c>
       <c r="AC6">
-        <v>0.7395146484600053</v>
+        <v>0.7009881654194173</v>
       </c>
       <c r="AD6">
-        <v>0.7414162861748147</v>
+        <v>0.7124085009208982</v>
       </c>
       <c r="AE6">
-        <v>0.7414162861748147</v>
+        <v>0.7196215643909321</v>
       </c>
       <c r="AF6">
-        <v>0.7414162861748147</v>
+        <v>0.72243638445459</v>
       </c>
       <c r="AG6">
-        <v>0.8567510485922962</v>
+        <v>0.8185800575321087</v>
       </c>
       <c r="AH6">
-        <v>0.9334651702443942</v>
+        <v>0.8858779274675106</v>
       </c>
       <c r="AI6">
-        <v>0.9334651702443942</v>
+        <v>0.8957290365652396</v>
       </c>
       <c r="AJ6">
-        <v>0.9445440558624799</v>
+        <v>0.9140038695882011</v>
       </c>
       <c r="AK6">
-        <v>0.949044739692225</v>
+        <v>0.9273654357658939</v>
       </c>
       <c r="AL6">
-        <v>0.949044739692225</v>
+        <v>0.9274019413826567</v>
       </c>
       <c r="AM6">
-        <v>0.9966972392717433</v>
+        <v>0.9729936507603181</v>
       </c>
       <c r="AN6">
-        <v>0.9966972392717433</v>
+        <v>0.979701190902155</v>
       </c>
       <c r="AO6">
-        <v>0.9966972392717433</v>
+        <v>0.9874870991024479</v>
       </c>
       <c r="AP6">
-        <v>0.9966972392717433</v>
+        <v>0.9875331640308205</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2864,100 +2864,100 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.007014360046448008</v>
+        <v>0.01522727774945864</v>
       </c>
       <c r="M7">
-        <v>0.1044570369905183</v>
+        <v>0.09784401451012141</v>
       </c>
       <c r="N7">
-        <v>0.1427488483368307</v>
+        <v>0.1363800366292607</v>
       </c>
       <c r="O7">
-        <v>0.1813805375982127</v>
+        <v>0.1751693443298658</v>
       </c>
       <c r="P7">
-        <v>0.2034934515122768</v>
+        <v>0.2016484446488201</v>
       </c>
       <c r="Q7">
-        <v>0.2034934515122768</v>
+        <v>0.209270273409299</v>
       </c>
       <c r="R7">
-        <v>0.2089107000169508</v>
+        <v>0.2233073434177183</v>
       </c>
       <c r="S7">
-        <v>0.2089107000169508</v>
+        <v>0.2244907644419842</v>
       </c>
       <c r="T7">
-        <v>0.2999485925147616</v>
+        <v>0.3023344945414099</v>
       </c>
       <c r="U7">
-        <v>0.2999531765676895</v>
+        <v>0.3123379106930922</v>
       </c>
       <c r="V7">
-        <v>0.3813122857768096</v>
+        <v>0.3829687677446873</v>
       </c>
       <c r="W7">
-        <v>0.4776349610425075</v>
+        <v>0.4647508510495901</v>
       </c>
       <c r="X7">
-        <v>0.4817959743401119</v>
+        <v>0.4778517429458912</v>
       </c>
       <c r="Y7">
-        <v>0.5875158490293497</v>
+        <v>0.5666368559111792</v>
       </c>
       <c r="Z7">
-        <v>0.5875158490293497</v>
+        <v>0.5669363950307781</v>
       </c>
       <c r="AA7">
-        <v>0.7255130526043427</v>
+        <v>0.6797753863227005</v>
       </c>
       <c r="AB7">
-        <v>0.7300913942362697</v>
+        <v>0.6931872818033311</v>
       </c>
       <c r="AC7">
-        <v>0.7538437740925141</v>
+        <v>0.7208881534291197</v>
       </c>
       <c r="AD7">
-        <v>0.7538437740925141</v>
+        <v>0.7232370584327078</v>
       </c>
       <c r="AE7">
-        <v>0.7702851071373062</v>
+        <v>0.7454895538602846</v>
       </c>
       <c r="AF7">
-        <v>0.7753801706086839</v>
+        <v>0.7592865234682958</v>
       </c>
       <c r="AG7">
-        <v>0.7753801706086839</v>
+        <v>0.7595345400660181</v>
       </c>
       <c r="AH7">
-        <v>0.8837605383435816</v>
+        <v>0.8503023194482102</v>
       </c>
       <c r="AI7">
-        <v>0.9292930752781182</v>
+        <v>0.8942343126191101</v>
       </c>
       <c r="AJ7">
-        <v>0.9292930752781182</v>
+        <v>0.9027185281383667</v>
       </c>
       <c r="AK7">
-        <v>0.9292930752781182</v>
+        <v>0.9087591157741909</v>
       </c>
       <c r="AL7">
-        <v>0.9413925120193911</v>
+        <v>0.9277759207342764</v>
       </c>
       <c r="AM7">
-        <v>0.9413925120193911</v>
+        <v>0.9291242459862511</v>
       </c>
       <c r="AN7">
-        <v>0.9999999999999998</v>
+        <v>0.9828000219435797</v>
       </c>
       <c r="AO7">
-        <v>0.9999999999999998</v>
+        <v>0.9911636453870365</v>
       </c>
       <c r="AP7">
-        <v>0.9999999999999998</v>
+        <v>0.9961328784045671</v>
       </c>
       <c r="AQ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -2971,91 +2971,91 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.002546516987737106</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07551331354403426</v>
+        <v>0.0797160888274963</v>
       </c>
       <c r="F8">
-        <v>0.08822688497524128</v>
+        <v>0.0797160888274963</v>
       </c>
       <c r="G8">
-        <v>0.1438293997951961</v>
+        <v>0.1364589239835715</v>
       </c>
       <c r="H8">
-        <v>0.1678629927414462</v>
+        <v>0.1514355138465859</v>
       </c>
       <c r="I8">
-        <v>0.1678629927414462</v>
+        <v>0.1514355138465859</v>
       </c>
       <c r="J8">
-        <v>0.1678629927414462</v>
+        <v>0.1514355138465859</v>
       </c>
       <c r="K8">
-        <v>0.1678629927414462</v>
+        <v>0.1514355138465859</v>
       </c>
       <c r="L8">
-        <v>0.2279809626085466</v>
+        <v>0.2141523763661347</v>
       </c>
       <c r="M8">
-        <v>0.2410762608527249</v>
+        <v>0.214657407731136</v>
       </c>
       <c r="N8">
-        <v>0.2866493059476437</v>
+        <v>0.2581310760030517</v>
       </c>
       <c r="O8">
-        <v>0.4085589017827209</v>
+        <v>0.4025993590354838</v>
       </c>
       <c r="P8">
-        <v>0.4170864172729769</v>
+        <v>0.4025993590354838</v>
       </c>
       <c r="Q8">
-        <v>0.4845082909973595</v>
+        <v>0.4749794163046221</v>
       </c>
       <c r="R8">
-        <v>0.4845082909973595</v>
+        <v>0.4749794163046221</v>
       </c>
       <c r="S8">
-        <v>0.6016599906492954</v>
+        <v>0.6131529180373</v>
       </c>
       <c r="T8">
-        <v>0.64249045222823</v>
+        <v>0.6503520639405435</v>
       </c>
       <c r="U8">
-        <v>0.6672617642269514</v>
+        <v>0.6663046692350048</v>
       </c>
       <c r="V8">
-        <v>0.6672617642269514</v>
+        <v>0.6663046692350048</v>
       </c>
       <c r="W8">
-        <v>0.7055188088615619</v>
+        <v>0.7000991387363126</v>
       </c>
       <c r="X8">
-        <v>0.7055188088615619</v>
+        <v>0.7000991387363126</v>
       </c>
       <c r="Y8">
-        <v>0.7058204975306863</v>
+        <v>0.7000991387363126</v>
       </c>
       <c r="Z8">
-        <v>0.8011889382827866</v>
+        <v>0.8094530013906408</v>
       </c>
       <c r="AA8">
-        <v>0.9106478610164388</v>
+        <v>0.9374488223954424</v>
       </c>
       <c r="AB8">
-        <v>0.9106478610164388</v>
+        <v>0.9374488223954424</v>
       </c>
       <c r="AC8">
-        <v>0.9237023402958976</v>
+        <v>0.9378998495438947</v>
       </c>
       <c r="AD8">
-        <v>0.938956193312188</v>
+        <v>0.941260687276032</v>
       </c>
       <c r="AE8">
-        <v>0.938956193312188</v>
+        <v>0.941260687276032</v>
       </c>
       <c r="AF8">
-        <v>0.9960677411783546</v>
+        <v>1</v>
       </c>
       <c r="AG8">
         <v>1</v>
@@ -3117,109 +3117,109 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.124873735701614</v>
+        <v>0.1030620125115983</v>
       </c>
       <c r="J9">
-        <v>0.124873735701614</v>
+        <v>0.1033357362567678</v>
       </c>
       <c r="K9">
-        <v>0.1870923354253743</v>
+        <v>0.1597040784338801</v>
       </c>
       <c r="L9">
-        <v>0.2265557059805786</v>
+        <v>0.1991141114061762</v>
       </c>
       <c r="M9">
-        <v>0.2287044627759086</v>
+        <v>0.2107154700157177</v>
       </c>
       <c r="N9">
-        <v>0.2287044627759086</v>
+        <v>0.2115626781494852</v>
       </c>
       <c r="O9">
-        <v>0.2287044627759086</v>
+        <v>0.2167926672991699</v>
       </c>
       <c r="P9">
-        <v>0.2576853175423728</v>
+        <v>0.2483906170499328</v>
       </c>
       <c r="Q9">
-        <v>0.3132077754628438</v>
+        <v>0.2997686670028564</v>
       </c>
       <c r="R9">
-        <v>0.3188370482018191</v>
+        <v>0.3139638762445942</v>
       </c>
       <c r="S9">
-        <v>0.4623862601775149</v>
+        <v>0.4309437666583285</v>
       </c>
       <c r="T9">
-        <v>0.4687660702132452</v>
+        <v>0.445698312984911</v>
       </c>
       <c r="U9">
-        <v>0.4852009539937726</v>
+        <v>0.4679463918256431</v>
       </c>
       <c r="V9">
-        <v>0.5285301871085466</v>
+        <v>0.5102374545666526</v>
       </c>
       <c r="W9">
-        <v>0.5761434049194644</v>
+        <v>0.5557211521331683</v>
       </c>
       <c r="X9">
-        <v>0.6707985146243344</v>
+        <v>0.6362627672626296</v>
       </c>
       <c r="Y9">
-        <v>0.6707985146243344</v>
+        <v>0.6447971284596876</v>
       </c>
       <c r="Z9">
-        <v>0.6775044232934305</v>
+        <v>0.6597946994297454</v>
       </c>
       <c r="AA9">
-        <v>0.7037608482595881</v>
+        <v>0.689362270904896</v>
       </c>
       <c r="AB9">
-        <v>0.7037608482595881</v>
+        <v>0.6895529235362441</v>
       </c>
       <c r="AC9">
-        <v>0.7343545299275099</v>
+        <v>0.7223528307397827</v>
       </c>
       <c r="AD9">
-        <v>0.7543967450386542</v>
+        <v>0.7472892692386699</v>
       </c>
       <c r="AE9">
-        <v>0.8948867512928506</v>
+        <v>0.8619892899942239</v>
       </c>
       <c r="AF9">
-        <v>0.8948867512928506</v>
+        <v>0.8621641556378227</v>
       </c>
       <c r="AG9">
-        <v>0.9293349169216265</v>
+        <v>0.8978366127220494</v>
       </c>
       <c r="AH9">
-        <v>0.9293349169216265</v>
+        <v>0.9013767425761525</v>
       </c>
       <c r="AI9">
-        <v>0.9322848413527719</v>
+        <v>0.9135751704743577</v>
       </c>
       <c r="AJ9">
-        <v>0.9596827644945529</v>
+        <v>0.9439934421940791</v>
       </c>
       <c r="AK9">
-        <v>0.9906054423558113</v>
+        <v>0.9770385334444353</v>
       </c>
       <c r="AL9">
-        <v>0.9906054423558113</v>
+        <v>0.9817166510799537</v>
       </c>
       <c r="AM9">
-        <v>0.9906054423558113</v>
+        <v>0.9829987163744862</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -3236,97 +3236,97 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02688972903352451</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04968213940521579</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.08159131571161171</v>
+        <v>0.008919277991397634</v>
       </c>
       <c r="H10">
-        <v>0.1482411407572688</v>
+        <v>0.07957075215142016</v>
       </c>
       <c r="I10">
-        <v>0.1621601715397695</v>
+        <v>0.07957075215142016</v>
       </c>
       <c r="J10">
-        <v>0.1621601715397695</v>
+        <v>0.07957075215142016</v>
       </c>
       <c r="K10">
-        <v>0.1621601715397695</v>
+        <v>0.07957075215142016</v>
       </c>
       <c r="L10">
-        <v>0.1621601715397695</v>
+        <v>0.07957075215142016</v>
       </c>
       <c r="M10">
-        <v>0.2241235356130697</v>
+        <v>0.1418946464135122</v>
       </c>
       <c r="N10">
-        <v>0.2241235356130697</v>
+        <v>0.1418946464135122</v>
       </c>
       <c r="O10">
-        <v>0.3564522644699032</v>
+        <v>0.3292538713309265</v>
       </c>
       <c r="P10">
-        <v>0.4360011942966165</v>
+        <v>0.4228263356175356</v>
       </c>
       <c r="Q10">
-        <v>0.4440513788822438</v>
+        <v>0.4228263356175356</v>
       </c>
       <c r="R10">
-        <v>0.5176424699810871</v>
+        <v>0.5058120526084828</v>
       </c>
       <c r="S10">
-        <v>0.5176424699810871</v>
+        <v>0.5058120526084828</v>
       </c>
       <c r="T10">
-        <v>0.6575894949679341</v>
+        <v>0.7067085650618429</v>
       </c>
       <c r="U10">
-        <v>0.6575894949679341</v>
+        <v>0.7067085650618429</v>
       </c>
       <c r="V10">
-        <v>0.6955352824768992</v>
+        <v>0.7263545646452174</v>
       </c>
       <c r="W10">
-        <v>0.6955352824768992</v>
+        <v>0.7263545646452174</v>
       </c>
       <c r="X10">
-        <v>0.7091704457407106</v>
+        <v>0.7263545646452174</v>
       </c>
       <c r="Y10">
-        <v>0.7231136968181995</v>
+        <v>0.7263545646452174</v>
       </c>
       <c r="Z10">
-        <v>0.7231136968181995</v>
+        <v>0.7263545646452174</v>
       </c>
       <c r="AA10">
-        <v>0.8674898453375356</v>
+        <v>0.9351213827113134</v>
       </c>
       <c r="AB10">
-        <v>0.8823381247626018</v>
+        <v>0.9351213827113134</v>
       </c>
       <c r="AC10">
-        <v>0.9105473359943517</v>
+        <v>0.9374660290221293</v>
       </c>
       <c r="AD10">
-        <v>0.9105473359943517</v>
+        <v>0.9374660290221293</v>
       </c>
       <c r="AE10">
-        <v>0.9405165651574444</v>
+        <v>0.9429381290835472</v>
       </c>
       <c r="AF10">
-        <v>0.9405165651574444</v>
+        <v>0.9429381290835472</v>
       </c>
       <c r="AG10">
-        <v>0.9995186526837497</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9995186526837497</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9995186526837497</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <v>1</v>
@@ -3388,100 +3388,100 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.124573856764804</v>
+        <v>0.1068550028946053</v>
       </c>
       <c r="M11">
-        <v>0.1658843954187714</v>
+        <v>0.148973558463306</v>
       </c>
       <c r="N11">
-        <v>0.3324858979710853</v>
+        <v>0.2885046609835977</v>
       </c>
       <c r="O11">
-        <v>0.4624602354882557</v>
+        <v>0.3995584869096698</v>
       </c>
       <c r="P11">
-        <v>0.4624602354882557</v>
+        <v>0.4042684726784955</v>
       </c>
       <c r="Q11">
-        <v>0.4624602354882557</v>
+        <v>0.4097512080125764</v>
       </c>
       <c r="R11">
-        <v>0.4624602354882557</v>
+        <v>0.4111411262881556</v>
       </c>
       <c r="S11">
-        <v>0.4624602354882557</v>
+        <v>0.4139822844334535</v>
       </c>
       <c r="T11">
-        <v>0.5213348460465087</v>
+        <v>0.4697567408413042</v>
       </c>
       <c r="U11">
-        <v>0.5213348460465087</v>
+        <v>0.4699914778918554</v>
       </c>
       <c r="V11">
-        <v>0.6733120605237425</v>
+        <v>0.5981523338722358</v>
       </c>
       <c r="W11">
-        <v>0.7385500409111899</v>
+        <v>0.6588742505195947</v>
       </c>
       <c r="X11">
-        <v>0.7431067299925433</v>
+        <v>0.6724170334567687</v>
       </c>
       <c r="Y11">
-        <v>0.769847742768353</v>
+        <v>0.7032079195790123</v>
       </c>
       <c r="Z11">
-        <v>0.769847742768353</v>
+        <v>0.7074136600621838</v>
       </c>
       <c r="AA11">
-        <v>0.8641956683396563</v>
+        <v>0.7907682855159119</v>
       </c>
       <c r="AB11">
-        <v>0.8641956683396563</v>
+        <v>0.7927857838974444</v>
       </c>
       <c r="AC11">
-        <v>0.8747390409043944</v>
+        <v>0.8109831569803425</v>
       </c>
       <c r="AD11">
-        <v>0.8747390409043944</v>
+        <v>0.8151638456748325</v>
       </c>
       <c r="AE11">
-        <v>0.8747390409043944</v>
+        <v>0.817312192489711</v>
       </c>
       <c r="AF11">
-        <v>0.8747390409043944</v>
+        <v>0.8266873168533516</v>
       </c>
       <c r="AG11">
-        <v>0.8775856897471638</v>
+        <v>0.838900559575915</v>
       </c>
       <c r="AH11">
-        <v>0.9697310063733071</v>
+        <v>0.9205426772748104</v>
       </c>
       <c r="AI11">
-        <v>0.9697310063733071</v>
+        <v>0.9282059954163011</v>
       </c>
       <c r="AJ11">
-        <v>0.9738040115293279</v>
+        <v>0.9413727186471709</v>
       </c>
       <c r="AK11">
-        <v>0.9738040115293279</v>
+        <v>0.9418970921218646</v>
       </c>
       <c r="AL11">
-        <v>0.9782994412810379</v>
+        <v>0.9553922465059534</v>
       </c>
       <c r="AM11">
-        <v>0.9784874044734606</v>
+        <v>0.9655383861215917</v>
       </c>
       <c r="AN11">
-        <v>0.9999999999999998</v>
+        <v>0.9922642269689798</v>
       </c>
       <c r="AO11">
-        <v>0.9999999999999998</v>
+        <v>0.9926564354626112</v>
       </c>
       <c r="AP11">
-        <v>0.9999999999999998</v>
+        <v>0.9932948025246235</v>
       </c>
       <c r="AQ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3549,16 +3549,16 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.508192378080047</v>
+        <v>0.5511456088989003</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -3590,16 +3590,16 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5159714406006058</v>
+        <v>0.5784828928792749</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -3631,16 +3631,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.530750178943547</v>
+        <v>0.5063706543519867</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5547444231284253</v>
+        <v>0.5151996147186336</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -3713,16 +3713,16 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5183520719417242</v>
+        <v>0.5396370669656512</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5875158490293497</v>
+        <v>0.5666368559111792</v>
       </c>
       <c r="G7">
         <v>14</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6016599906492954</v>
+        <v>0.6131529180373</v>
       </c>
       <c r="G8">
         <v>16</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5285301871085466</v>
+        <v>0.5102374545666526</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -3874,19 +3874,19 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>17</v>
       </c>
       <c r="E10">
-        <v>0.02688972903352451</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5176424699810871</v>
+        <v>0.5058120526084828</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>54</v>
@@ -3918,16 +3918,16 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5213348460465087</v>
+        <v>0.5981523338722358</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>54</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7803879564297858</v>
+        <v>0.7269607851828538</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8122190327152998</v>
+        <v>0.7562306111099146</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -4095,16 +4095,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7096410929490884</v>
+        <v>0.7969706130159792</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7538754549638711</v>
+        <v>0.709316910970457</v>
       </c>
       <c r="G5">
         <v>16</v>
@@ -4177,16 +4177,16 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7395146484600053</v>
+        <v>0.7009881654194173</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -4218,16 +4218,16 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7255130526043427</v>
+        <v>0.7208881534291197</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>54</v>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7055188088615619</v>
+        <v>0.7000991387363126</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -4300,16 +4300,16 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7037608482595881</v>
+        <v>0.7223528307397827</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9">
         <v>54</v>
@@ -4338,19 +4338,19 @@
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>0.02688972903352451</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7091704457407106</v>
+        <v>0.7067085650618429</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>54</v>
@@ -4382,16 +4382,16 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7385500409111899</v>
+        <v>0.7032079195790123</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>54</v>
@@ -4477,16 +4477,16 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8064079150752544</v>
+        <v>0.8898558572475013</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -4518,16 +4518,16 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8122190327152998</v>
+        <v>0.8330956574827926</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -4559,16 +4559,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8304808830306828</v>
+        <v>0.8685026263119121</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -4600,16 +4600,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8011259064337307</v>
+        <v>0.8791820742490254</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8567510485922962</v>
+        <v>0.8185800575321087</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8837605383435816</v>
+        <v>0.8503023194482102</v>
       </c>
       <c r="G7">
         <v>23</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8011889382827866</v>
+        <v>0.8094530013906408</v>
       </c>
       <c r="G8">
         <v>23</v>
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8948867512928506</v>
+        <v>0.8619892899942239</v>
       </c>
       <c r="G9">
         <v>24</v>
@@ -4802,19 +4802,19 @@
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>0.02688972903352451</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8674898453375356</v>
+        <v>0.9351213827113134</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>54</v>
@@ -4846,16 +4846,16 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8641956683396563</v>
+        <v>0.8109831569803425</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>54</v>
@@ -4941,16 +4941,16 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9451255686473506</v>
+        <v>0.9128734536950605</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9595666303407306</v>
+        <v>0.9119195424602751</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -5023,16 +5023,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9136490211436713</v>
+        <v>0.9122268353367659</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -5064,16 +5064,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9188580454147462</v>
+        <v>0.908861797236784</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -5105,16 +5105,16 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9334651702443942</v>
+        <v>0.9140038695882011</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -5146,16 +5146,16 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9292930752781182</v>
+        <v>0.9027185281383667</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>54</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9106478610164388</v>
+        <v>0.9374488223954424</v>
       </c>
       <c r="G8">
         <v>24</v>
@@ -5228,16 +5228,16 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9293349169216265</v>
+        <v>0.9013767425761525</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9">
         <v>54</v>
@@ -5266,19 +5266,19 @@
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0.02688972903352451</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9105473359943517</v>
+        <v>0.9351213827113134</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>54</v>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9697310063733071</v>
+        <v>0.9205426772748104</v>
       </c>
       <c r="G11">
         <v>24</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/54_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/54_11R22.xlsx
@@ -752,103 +752,103 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00282676936157604</v>
       </c>
       <c r="L2">
-        <v>0.124644175938417</v>
+        <v>0.1254160836934189</v>
       </c>
       <c r="M2">
-        <v>0.03175503718722875</v>
+        <v>0.03195169266094546</v>
       </c>
       <c r="N2">
-        <v>0.115992988497951</v>
+        <v>0.1167113203949155</v>
       </c>
       <c r="O2">
-        <v>0.01281427733980562</v>
+        <v>0.01289363475846455</v>
       </c>
       <c r="P2">
-        <v>9.06159350017947E-05</v>
+        <v>9.11771095807754E-05</v>
       </c>
       <c r="Q2">
-        <v>0.00793182845378429</v>
+        <v>0.007980949400260331</v>
       </c>
       <c r="R2">
-        <v>0.03859515947579245</v>
+        <v>0.03883417507905353</v>
       </c>
       <c r="S2">
-        <v>0.06217692757305072</v>
+        <v>0.06256198248808779</v>
       </c>
       <c r="T2">
-        <v>0.0547622795171781</v>
+        <v>0.05510141632740324</v>
       </c>
       <c r="U2">
-        <v>0.03240954073637561</v>
+        <v>0.03261024947901932</v>
       </c>
       <c r="V2">
-        <v>0.069972778244315</v>
+        <v>0.07040611201028658</v>
       </c>
       <c r="W2">
-        <v>0.003837619405165615</v>
+        <v>0.003861385362598371</v>
       </c>
       <c r="X2">
-        <v>0.08247346857849575</v>
+        <v>0.08298421775308297</v>
       </c>
       <c r="Y2">
-        <v>0.001372999877853884</v>
+        <v>0.001381502715995762</v>
       </c>
       <c r="Z2">
-        <v>0.08813108842243823</v>
+        <v>0.08867687461820604</v>
       </c>
       <c r="AA2">
-        <v>0.03012969346516808</v>
+        <v>0.03031628336290294</v>
       </c>
       <c r="AB2">
-        <v>0.003699212654417156</v>
+        <v>0.003722121473973689</v>
       </c>
       <c r="AC2">
-        <v>0.0001621146318871093</v>
+        <v>0.000163118590079386</v>
       </c>
       <c r="AD2">
-        <v>0.0002910323879359048</v>
+        <v>0.0002928347196976026</v>
       </c>
       <c r="AE2">
-        <v>0.02245945312733212</v>
+        <v>0.02259854206519518</v>
       </c>
       <c r="AF2">
-        <v>0.001297558410471997</v>
+        <v>0.001305594047853933</v>
       </c>
       <c r="AG2">
-        <v>0.1048560073874351</v>
+        <v>0.1055053691779202</v>
       </c>
       <c r="AH2">
-        <v>0.02301759644755914</v>
+        <v>0.02316014190598597</v>
       </c>
       <c r="AI2">
-        <v>0.01584473148031404</v>
+        <v>0.01594285617016413</v>
       </c>
       <c r="AJ2">
-        <v>0.008160599321728393</v>
+        <v>0.008211137021179494</v>
       </c>
       <c r="AK2">
-        <v>0.01413102225238605</v>
+        <v>0.01421853412833693</v>
       </c>
       <c r="AL2">
-        <v>0.001404681866852471</v>
+        <v>0.00141338090808862</v>
       </c>
       <c r="AM2">
-        <v>0.02945888801330913</v>
+        <v>0.02964132368621568</v>
       </c>
       <c r="AN2">
-        <v>0.0032358583924201</v>
+        <v>0.00325589770968777</v>
       </c>
       <c r="AO2">
-        <v>0.00590264526006402</v>
+        <v>0.005939199696859528</v>
       </c>
       <c r="AP2">
-        <v>2.397365672861122E-05</v>
+        <v>2.41221229638384E-05</v>
       </c>
       <c r="AQ2">
-        <v>0.008964146061136682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1014,103 +1014,103 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.003336327932820915</v>
       </c>
       <c r="L4">
-        <v>0.09831669277681253</v>
+        <v>0.09953649852449062</v>
       </c>
       <c r="M4">
-        <v>0.01582505180635173</v>
+        <v>0.0160213917014956</v>
       </c>
       <c r="N4">
-        <v>0.1271825372158307</v>
+        <v>0.1287604787181179</v>
       </c>
       <c r="O4">
-        <v>0.01847668261958114</v>
+        <v>0.01870592104309638</v>
       </c>
       <c r="P4">
-        <v>0.00480704665960033</v>
+        <v>0.004866687224992905</v>
       </c>
       <c r="Q4">
-        <v>0.009034171156222539</v>
+        <v>0.009146257248529206</v>
       </c>
       <c r="R4">
-        <v>0.01961059351158119</v>
+        <v>0.01985390025843351</v>
       </c>
       <c r="S4">
-        <v>0.01006267943408912</v>
+        <v>0.01018752612964069</v>
       </c>
       <c r="T4">
-        <v>0.07937592776587296</v>
+        <v>0.08036073726445821</v>
       </c>
       <c r="U4">
-        <v>0.006285788134006368</v>
+        <v>0.006363775302593837</v>
       </c>
       <c r="V4">
-        <v>0.1038257779480492</v>
+        <v>0.1051139343853866</v>
       </c>
       <c r="W4">
-        <v>0.0135677053239889</v>
+        <v>0.01373603853851814</v>
       </c>
       <c r="X4">
-        <v>0.01807324942842082</v>
+        <v>0.01829748249514992</v>
       </c>
       <c r="Y4">
-        <v>0.02259531884100715</v>
+        <v>0.0228756567878444</v>
       </c>
       <c r="Z4">
-        <v>0.04917605904081197</v>
+        <v>0.04978618167382518</v>
       </c>
       <c r="AA4">
-        <v>0.07894025272912569</v>
+        <v>0.07991965684944877</v>
       </c>
       <c r="AB4">
-        <v>0.0001533490233310932</v>
+        <v>0.0001552516099089872</v>
       </c>
       <c r="AC4">
-        <v>0.00589247977717051</v>
+        <v>0.005965587206817133</v>
       </c>
       <c r="AD4">
-        <v>0.01198778462468718</v>
+        <v>0.01213651591511327</v>
       </c>
       <c r="AE4">
-        <v>0.00373473900177227</v>
+        <v>0.003781075549226944</v>
       </c>
       <c r="AF4">
-        <v>0.002631095780442792</v>
+        <v>0.002663739532638173</v>
       </c>
       <c r="AG4">
-        <v>0.09741563041722294</v>
+        <v>0.09862425677090191</v>
       </c>
       <c r="AH4">
-        <v>0.07153201329593299</v>
+        <v>0.07241950410239698</v>
       </c>
       <c r="AI4">
-        <v>0.007778395007325622</v>
+        <v>0.007874900805778233</v>
       </c>
       <c r="AJ4">
-        <v>0.02078102312625693</v>
+        <v>0.0210388512807249</v>
       </c>
       <c r="AK4">
-        <v>0.01516479089127121</v>
+        <v>0.01535293899276911</v>
       </c>
       <c r="AL4">
-        <v>0.0007735251534683633</v>
+        <v>0.0007831222056222252</v>
       </c>
       <c r="AM4">
-        <v>0.05032554737315231</v>
+        <v>0.05094993159730611</v>
       </c>
       <c r="AN4">
-        <v>0.01206517853360788</v>
+        <v>0.01221487004281544</v>
       </c>
       <c r="AO4">
-        <v>0.009054788643471047</v>
+        <v>0.00916713053495828</v>
       </c>
       <c r="AP4">
-        <v>3.824326133118951E-06</v>
+        <v>3.871774179492559E-06</v>
       </c>
       <c r="AQ4">
-        <v>0.0155503006334015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1276,103 +1276,103 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.00149228814728463</v>
       </c>
       <c r="L6">
-        <v>0.09248474330721594</v>
+        <v>0.09351253485406169</v>
       </c>
       <c r="M6">
-        <v>0.03154883807283564</v>
+        <v>0.0318994432421267</v>
       </c>
       <c r="N6">
-        <v>0.122077972748513</v>
+        <v>0.1234346366041957</v>
       </c>
       <c r="O6">
-        <v>0.00479491625187038</v>
+        <v>0.004848202601762009</v>
       </c>
       <c r="P6">
-        <v>0.002698331310644468</v>
+        <v>0.002728318117251663</v>
       </c>
       <c r="Q6">
-        <v>0.006062074777695521</v>
+        <v>0.006129443178039842</v>
       </c>
       <c r="R6">
-        <v>0.01375573151840904</v>
+        <v>0.01390860024107324</v>
       </c>
       <c r="S6">
-        <v>0.008693404344043964</v>
+        <v>0.008790014954384744</v>
       </c>
       <c r="T6">
-        <v>0.06568394666469315</v>
+        <v>0.06641389846789152</v>
       </c>
       <c r="U6">
-        <v>0.008303326193298478</v>
+        <v>0.008395601828900628</v>
       </c>
       <c r="V6">
-        <v>0.1216065550583814</v>
+        <v>0.1229579800054655</v>
       </c>
       <c r="W6">
-        <v>0.01200891329975928</v>
+        <v>0.01214236946923035</v>
       </c>
       <c r="X6">
-        <v>0.04991831341829091</v>
+        <v>0.05047306027414464</v>
       </c>
       <c r="Y6">
-        <v>0.02646735889500729</v>
+        <v>0.02676149311398067</v>
       </c>
       <c r="Z6">
-        <v>0.06232456796571941</v>
+        <v>0.06301718668125389</v>
       </c>
       <c r="AA6">
-        <v>0.06446744141857676</v>
+        <v>0.06518387408592695</v>
       </c>
       <c r="AB6">
-        <v>0.003516180208987975</v>
+        <v>0.00355525584640397</v>
       </c>
       <c r="AC6">
-        <v>0.004575549965474717</v>
+        <v>0.00462639847744024</v>
       </c>
       <c r="AD6">
-        <v>0.01142033550148097</v>
+        <v>0.01154725075118409</v>
       </c>
       <c r="AE6">
-        <v>0.00721306347003378</v>
+        <v>0.007293222914675762</v>
       </c>
       <c r="AF6">
-        <v>0.002814820063658006</v>
+        <v>0.002846101420602571</v>
       </c>
       <c r="AG6">
-        <v>0.09614367307751866</v>
+        <v>0.0972121266509208</v>
       </c>
       <c r="AH6">
-        <v>0.06729786993540186</v>
+        <v>0.06804575741788714</v>
       </c>
       <c r="AI6">
-        <v>0.009851109097728987</v>
+        <v>0.009960585388581288</v>
       </c>
       <c r="AJ6">
-        <v>0.01827483302296147</v>
+        <v>0.0184779229405993</v>
       </c>
       <c r="AK6">
-        <v>0.01336156617769277</v>
+        <v>0.01351005450429638</v>
       </c>
       <c r="AL6">
-        <v>3.650561676278285E-05</v>
+        <v>3.691130707428152E-05</v>
       </c>
       <c r="AM6">
-        <v>0.0455917093776613</v>
+        <v>0.04609837428074648</v>
       </c>
       <c r="AN6">
-        <v>0.006707540141836981</v>
+        <v>0.006782081658755164</v>
       </c>
       <c r="AO6">
-        <v>0.007785908200292907</v>
+        <v>0.007872433721655884</v>
       </c>
       <c r="AP6">
-        <v>4.606492837252676E-05</v>
+        <v>4.657685220227744E-05</v>
       </c>
       <c r="AQ6">
-        <v>0.01246683596917956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -2206,100 +2206,100 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00282676936157604</v>
       </c>
       <c r="L2">
-        <v>0.124644175938417</v>
+        <v>0.1282428530549949</v>
       </c>
       <c r="M2">
-        <v>0.1563992131256457</v>
+        <v>0.1601945457159404</v>
       </c>
       <c r="N2">
-        <v>0.2723922016235967</v>
+        <v>0.2769058661108559</v>
       </c>
       <c r="O2">
-        <v>0.2852064789634023</v>
+        <v>0.2897995008693204</v>
       </c>
       <c r="P2">
-        <v>0.2852970948984041</v>
+        <v>0.2898906779789012</v>
       </c>
       <c r="Q2">
-        <v>0.2932289233521884</v>
+        <v>0.2978716273791616</v>
       </c>
       <c r="R2">
-        <v>0.3318240828279809</v>
+        <v>0.3367058024582151</v>
       </c>
       <c r="S2">
-        <v>0.3940010104010316</v>
+        <v>0.3992677849463029</v>
       </c>
       <c r="T2">
-        <v>0.4487632899182097</v>
+        <v>0.4543692012737061</v>
       </c>
       <c r="U2">
-        <v>0.4811728306545853</v>
+        <v>0.4869794507527254</v>
       </c>
       <c r="V2">
-        <v>0.5511456088989003</v>
+        <v>0.557385562763012</v>
       </c>
       <c r="W2">
-        <v>0.5549832283040659</v>
+        <v>0.5612469481256104</v>
       </c>
       <c r="X2">
-        <v>0.6374566968825617</v>
+        <v>0.6442311658786933</v>
       </c>
       <c r="Y2">
-        <v>0.6388296967604156</v>
+        <v>0.6456126685946891</v>
       </c>
       <c r="Z2">
-        <v>0.7269607851828538</v>
+        <v>0.7342895432128952</v>
       </c>
       <c r="AA2">
-        <v>0.7570904786480219</v>
+        <v>0.7646058265757981</v>
       </c>
       <c r="AB2">
-        <v>0.7607896913024391</v>
+        <v>0.7683279480497718</v>
       </c>
       <c r="AC2">
-        <v>0.7609518059343262</v>
+        <v>0.7684910666398511</v>
       </c>
       <c r="AD2">
-        <v>0.7612428383222621</v>
+        <v>0.7687839013595488</v>
       </c>
       <c r="AE2">
-        <v>0.7837022914495942</v>
+        <v>0.791382443424744</v>
       </c>
       <c r="AF2">
-        <v>0.7849998498600662</v>
+        <v>0.7926880374725979</v>
       </c>
       <c r="AG2">
-        <v>0.8898558572475013</v>
+        <v>0.8981934066505181</v>
       </c>
       <c r="AH2">
-        <v>0.9128734536950605</v>
+        <v>0.921353548556504</v>
       </c>
       <c r="AI2">
-        <v>0.9287181851753745</v>
+        <v>0.9372964047266681</v>
       </c>
       <c r="AJ2">
-        <v>0.9368787844971029</v>
+        <v>0.9455075417478476</v>
       </c>
       <c r="AK2">
-        <v>0.951009806749489</v>
+        <v>0.9597260758761845</v>
       </c>
       <c r="AL2">
-        <v>0.9524144886163415</v>
+        <v>0.9611394567842731</v>
       </c>
       <c r="AM2">
-        <v>0.9818733766296506</v>
+        <v>0.9907807804704888</v>
       </c>
       <c r="AN2">
-        <v>0.9851092350220707</v>
+        <v>0.9940366781801766</v>
       </c>
       <c r="AO2">
-        <v>0.9910118802821347</v>
+        <v>0.9999758778770361</v>
       </c>
       <c r="AP2">
-        <v>0.9910358539388633</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -2468,100 +2468,100 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.003336327932820915</v>
       </c>
       <c r="L4">
-        <v>0.09831669277681253</v>
+        <v>0.1028728264573115</v>
       </c>
       <c r="M4">
-        <v>0.1141417445831643</v>
+        <v>0.1188942181588071</v>
       </c>
       <c r="N4">
-        <v>0.2413242817989949</v>
+        <v>0.247654696876925</v>
       </c>
       <c r="O4">
-        <v>0.2598009644185761</v>
+        <v>0.2663606179200214</v>
       </c>
       <c r="P4">
-        <v>0.2646080110781764</v>
+        <v>0.2712273051450143</v>
       </c>
       <c r="Q4">
-        <v>0.273642182234399</v>
+        <v>0.2803735623935435</v>
       </c>
       <c r="R4">
-        <v>0.2932527757459801</v>
+        <v>0.300227462651977</v>
       </c>
       <c r="S4">
-        <v>0.3033154551800692</v>
+        <v>0.3104149887816177</v>
       </c>
       <c r="T4">
-        <v>0.3826913829459422</v>
+        <v>0.3907757260460759</v>
       </c>
       <c r="U4">
-        <v>0.3889771710799486</v>
+        <v>0.3971395013486698</v>
       </c>
       <c r="V4">
-        <v>0.4928029490279978</v>
+        <v>0.5022534357340565</v>
       </c>
       <c r="W4">
-        <v>0.5063706543519867</v>
+        <v>0.5159894742725746</v>
       </c>
       <c r="X4">
-        <v>0.5244439037804075</v>
+        <v>0.5342869567677245</v>
       </c>
       <c r="Y4">
-        <v>0.5470392226214147</v>
+        <v>0.557162613555569</v>
       </c>
       <c r="Z4">
-        <v>0.5962152816622267</v>
+        <v>0.6069487952293942</v>
       </c>
       <c r="AA4">
-        <v>0.6751555343913525</v>
+        <v>0.686868452078843</v>
       </c>
       <c r="AB4">
-        <v>0.6753088834146835</v>
+        <v>0.687023703688752</v>
       </c>
       <c r="AC4">
-        <v>0.6812013631918541</v>
+        <v>0.6929892908955692</v>
       </c>
       <c r="AD4">
-        <v>0.6931891478165413</v>
+        <v>0.7051258068106824</v>
       </c>
       <c r="AE4">
-        <v>0.6969238868183135</v>
+        <v>0.7089068823599093</v>
       </c>
       <c r="AF4">
-        <v>0.6995549825987563</v>
+        <v>0.7115706218925475</v>
       </c>
       <c r="AG4">
-        <v>0.7969706130159792</v>
+        <v>0.8101948786634494</v>
       </c>
       <c r="AH4">
-        <v>0.8685026263119121</v>
+        <v>0.8826143827658464</v>
       </c>
       <c r="AI4">
-        <v>0.8762810213192377</v>
+        <v>0.8904892835716246</v>
       </c>
       <c r="AJ4">
-        <v>0.8970620444454946</v>
+        <v>0.9115281348523495</v>
       </c>
       <c r="AK4">
-        <v>0.9122268353367659</v>
+        <v>0.9268810738451186</v>
       </c>
       <c r="AL4">
-        <v>0.9130003604902343</v>
+        <v>0.9276641960507409</v>
       </c>
       <c r="AM4">
-        <v>0.9633259078633866</v>
+        <v>0.978614127648047</v>
       </c>
       <c r="AN4">
-        <v>0.9753910863969945</v>
+        <v>0.9908289976908624</v>
       </c>
       <c r="AO4">
-        <v>0.9844458750404655</v>
+        <v>0.9999961282258207</v>
       </c>
       <c r="AP4">
-        <v>0.9844496993665987</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2730,100 +2730,100 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.00149228814728463</v>
       </c>
       <c r="L6">
-        <v>0.09248474330721594</v>
+        <v>0.09500482300134633</v>
       </c>
       <c r="M6">
-        <v>0.1240335813800516</v>
+        <v>0.126904266243473</v>
       </c>
       <c r="N6">
-        <v>0.2461115541285646</v>
+        <v>0.2503389028476687</v>
       </c>
       <c r="O6">
-        <v>0.250906470380435</v>
+        <v>0.2551871054494307</v>
       </c>
       <c r="P6">
-        <v>0.2536048016910794</v>
+        <v>0.2579154235666823</v>
       </c>
       <c r="Q6">
-        <v>0.259666876468775</v>
+        <v>0.2640448667447222</v>
       </c>
       <c r="R6">
-        <v>0.273422607987184</v>
+        <v>0.2779534669857954</v>
       </c>
       <c r="S6">
-        <v>0.282116012331228</v>
+        <v>0.2867434819401802</v>
       </c>
       <c r="T6">
-        <v>0.3477999589959211</v>
+        <v>0.3531573804080717</v>
       </c>
       <c r="U6">
-        <v>0.3561032851892196</v>
+        <v>0.3615529822369724</v>
       </c>
       <c r="V6">
-        <v>0.477709840247601</v>
+        <v>0.4845109622424378</v>
       </c>
       <c r="W6">
-        <v>0.4897187535473603</v>
+        <v>0.4966533317116682</v>
       </c>
       <c r="X6">
-        <v>0.5396370669656512</v>
+        <v>0.5471263919858128</v>
       </c>
       <c r="Y6">
-        <v>0.5661044258606585</v>
+        <v>0.5738878850997935</v>
       </c>
       <c r="Z6">
-        <v>0.6284289938263778</v>
+        <v>0.6369050717810474</v>
       </c>
       <c r="AA6">
-        <v>0.6928964352449546</v>
+        <v>0.7020889458669743</v>
       </c>
       <c r="AB6">
-        <v>0.6964126154539426</v>
+        <v>0.7056442017133783</v>
       </c>
       <c r="AC6">
-        <v>0.7009881654194173</v>
+        <v>0.7102706001908186</v>
       </c>
       <c r="AD6">
-        <v>0.7124085009208982</v>
+        <v>0.7218178509420027</v>
       </c>
       <c r="AE6">
-        <v>0.7196215643909321</v>
+        <v>0.7291110738566784</v>
       </c>
       <c r="AF6">
-        <v>0.72243638445459</v>
+        <v>0.731957175277281</v>
       </c>
       <c r="AG6">
-        <v>0.8185800575321087</v>
+        <v>0.8291693019282018</v>
       </c>
       <c r="AH6">
-        <v>0.8858779274675106</v>
+        <v>0.8972150593460889</v>
       </c>
       <c r="AI6">
-        <v>0.8957290365652396</v>
+        <v>0.9071756447346702</v>
       </c>
       <c r="AJ6">
-        <v>0.9140038695882011</v>
+        <v>0.9256535676752694</v>
       </c>
       <c r="AK6">
-        <v>0.9273654357658939</v>
+        <v>0.9391636221795658</v>
       </c>
       <c r="AL6">
-        <v>0.9274019413826567</v>
+        <v>0.9392005334866401</v>
       </c>
       <c r="AM6">
-        <v>0.9729936507603181</v>
+        <v>0.9852989077673866</v>
       </c>
       <c r="AN6">
-        <v>0.979701190902155</v>
+        <v>0.9920809894261418</v>
       </c>
       <c r="AO6">
-        <v>0.9874870991024479</v>
+        <v>0.9999534231477977</v>
       </c>
       <c r="AP6">
-        <v>0.9875331640308205</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5511456088989003</v>
+        <v>0.557385562763012</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -3631,16 +3631,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5063706543519867</v>
+        <v>0.5022534357340565</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5396370669656512</v>
+        <v>0.5471263919858128</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7269607851828538</v>
+        <v>0.7342895432128952</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -4095,16 +4095,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7969706130159792</v>
+        <v>0.7051258068106824</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -4177,16 +4177,16 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7009881654194173</v>
+        <v>0.7020889458669743</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8898558572475013</v>
+        <v>0.8981934066505181</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -4559,16 +4559,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8685026263119121</v>
+        <v>0.8101948786634494</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8185800575321087</v>
+        <v>0.8291693019282018</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9128734536950605</v>
+        <v>0.921353548556504</v>
       </c>
       <c r="G2">
         <v>24</v>
@@ -5023,16 +5023,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9122268353367659</v>
+        <v>0.9115281348523495</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -5105,16 +5105,16 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9140038695882011</v>
+        <v>0.9071756447346702</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>54</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/54_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/54_11R22.xlsx
@@ -752,103 +752,103 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.00282676936157604</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1254160836934189</v>
+        <v>0.124644175938417</v>
       </c>
       <c r="M2">
-        <v>0.03195169266094546</v>
+        <v>0.03175503718722875</v>
       </c>
       <c r="N2">
-        <v>0.1167113203949155</v>
+        <v>0.115992988497951</v>
       </c>
       <c r="O2">
-        <v>0.01289363475846455</v>
+        <v>0.01281427733980562</v>
       </c>
       <c r="P2">
-        <v>9.11771095807754E-05</v>
+        <v>9.06159350017947E-05</v>
       </c>
       <c r="Q2">
-        <v>0.007980949400260331</v>
+        <v>0.00793182845378429</v>
       </c>
       <c r="R2">
-        <v>0.03883417507905353</v>
+        <v>0.03859515947579245</v>
       </c>
       <c r="S2">
-        <v>0.06256198248808779</v>
+        <v>0.06217692757305072</v>
       </c>
       <c r="T2">
-        <v>0.05510141632740324</v>
+        <v>0.0547622795171781</v>
       </c>
       <c r="U2">
-        <v>0.03261024947901932</v>
+        <v>0.03240954073637561</v>
       </c>
       <c r="V2">
-        <v>0.07040611201028658</v>
+        <v>0.069972778244315</v>
       </c>
       <c r="W2">
-        <v>0.003861385362598371</v>
+        <v>0.003837619405165615</v>
       </c>
       <c r="X2">
-        <v>0.08298421775308297</v>
+        <v>0.08247346857849575</v>
       </c>
       <c r="Y2">
-        <v>0.001381502715995762</v>
+        <v>0.001372999877853884</v>
       </c>
       <c r="Z2">
-        <v>0.08867687461820604</v>
+        <v>0.08813108842243823</v>
       </c>
       <c r="AA2">
-        <v>0.03031628336290294</v>
+        <v>0.03012969346516808</v>
       </c>
       <c r="AB2">
-        <v>0.003722121473973689</v>
+        <v>0.003699212654417156</v>
       </c>
       <c r="AC2">
-        <v>0.000163118590079386</v>
+        <v>0.0001621146318871093</v>
       </c>
       <c r="AD2">
-        <v>0.0002928347196976026</v>
+        <v>0.0002910323879359048</v>
       </c>
       <c r="AE2">
-        <v>0.02259854206519518</v>
+        <v>0.02245945312733212</v>
       </c>
       <c r="AF2">
-        <v>0.001305594047853933</v>
+        <v>0.001297558410471997</v>
       </c>
       <c r="AG2">
-        <v>0.1055053691779202</v>
+        <v>0.1048560073874351</v>
       </c>
       <c r="AH2">
-        <v>0.02316014190598597</v>
+        <v>0.02301759644755914</v>
       </c>
       <c r="AI2">
-        <v>0.01594285617016413</v>
+        <v>0.01584473148031404</v>
       </c>
       <c r="AJ2">
-        <v>0.008211137021179494</v>
+        <v>0.008160599321728393</v>
       </c>
       <c r="AK2">
-        <v>0.01421853412833693</v>
+        <v>0.01413102225238605</v>
       </c>
       <c r="AL2">
-        <v>0.00141338090808862</v>
+        <v>0.001404681866852471</v>
       </c>
       <c r="AM2">
-        <v>0.02964132368621568</v>
+        <v>0.02945888801330913</v>
       </c>
       <c r="AN2">
-        <v>0.00325589770968777</v>
+        <v>0.0032358583924201</v>
       </c>
       <c r="AO2">
-        <v>0.005939199696859528</v>
+        <v>0.00590264526006402</v>
       </c>
       <c r="AP2">
-        <v>2.41221229638384E-05</v>
+        <v>2.397365672861122E-05</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.008964146061136682</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1014,103 +1014,103 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.003336327932820915</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.09953649852449062</v>
+        <v>0.09831669277681253</v>
       </c>
       <c r="M4">
-        <v>0.0160213917014956</v>
+        <v>0.01582505180635173</v>
       </c>
       <c r="N4">
-        <v>0.1287604787181179</v>
+        <v>0.1271825372158307</v>
       </c>
       <c r="O4">
-        <v>0.01870592104309638</v>
+        <v>0.01847668261958114</v>
       </c>
       <c r="P4">
-        <v>0.004866687224992905</v>
+        <v>0.00480704665960033</v>
       </c>
       <c r="Q4">
-        <v>0.009146257248529206</v>
+        <v>0.009034171156222539</v>
       </c>
       <c r="R4">
-        <v>0.01985390025843351</v>
+        <v>0.01961059351158119</v>
       </c>
       <c r="S4">
-        <v>0.01018752612964069</v>
+        <v>0.01006267943408912</v>
       </c>
       <c r="T4">
-        <v>0.08036073726445821</v>
+        <v>0.07937592776587296</v>
       </c>
       <c r="U4">
-        <v>0.006363775302593837</v>
+        <v>0.006285788134006368</v>
       </c>
       <c r="V4">
-        <v>0.1051139343853866</v>
+        <v>0.1038257779480492</v>
       </c>
       <c r="W4">
-        <v>0.01373603853851814</v>
+        <v>0.0135677053239889</v>
       </c>
       <c r="X4">
-        <v>0.01829748249514992</v>
+        <v>0.01807324942842082</v>
       </c>
       <c r="Y4">
-        <v>0.0228756567878444</v>
+        <v>0.02259531884100715</v>
       </c>
       <c r="Z4">
-        <v>0.04978618167382518</v>
+        <v>0.04917605904081197</v>
       </c>
       <c r="AA4">
-        <v>0.07991965684944877</v>
+        <v>0.07894025272912569</v>
       </c>
       <c r="AB4">
-        <v>0.0001552516099089872</v>
+        <v>0.0001533490233310932</v>
       </c>
       <c r="AC4">
-        <v>0.005965587206817133</v>
+        <v>0.00589247977717051</v>
       </c>
       <c r="AD4">
-        <v>0.01213651591511327</v>
+        <v>0.01198778462468718</v>
       </c>
       <c r="AE4">
-        <v>0.003781075549226944</v>
+        <v>0.00373473900177227</v>
       </c>
       <c r="AF4">
-        <v>0.002663739532638173</v>
+        <v>0.002631095780442792</v>
       </c>
       <c r="AG4">
-        <v>0.09862425677090191</v>
+        <v>0.09741563041722294</v>
       </c>
       <c r="AH4">
-        <v>0.07241950410239698</v>
+        <v>0.07153201329593299</v>
       </c>
       <c r="AI4">
-        <v>0.007874900805778233</v>
+        <v>0.007778395007325622</v>
       </c>
       <c r="AJ4">
-        <v>0.0210388512807249</v>
+        <v>0.02078102312625693</v>
       </c>
       <c r="AK4">
-        <v>0.01535293899276911</v>
+        <v>0.01516479089127121</v>
       </c>
       <c r="AL4">
-        <v>0.0007831222056222252</v>
+        <v>0.0007735251534683633</v>
       </c>
       <c r="AM4">
-        <v>0.05094993159730611</v>
+        <v>0.05032554737315231</v>
       </c>
       <c r="AN4">
-        <v>0.01221487004281544</v>
+        <v>0.01206517853360788</v>
       </c>
       <c r="AO4">
-        <v>0.00916713053495828</v>
+        <v>0.009054788643471047</v>
       </c>
       <c r="AP4">
-        <v>3.871774179492559E-06</v>
+        <v>3.824326133118951E-06</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.0155503006334015</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1276,103 +1276,103 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.00149228814728463</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.09351253485406169</v>
+        <v>0.09248474330721594</v>
       </c>
       <c r="M6">
-        <v>0.0318994432421267</v>
+        <v>0.03154883807283564</v>
       </c>
       <c r="N6">
-        <v>0.1234346366041957</v>
+        <v>0.122077972748513</v>
       </c>
       <c r="O6">
-        <v>0.004848202601762009</v>
+        <v>0.00479491625187038</v>
       </c>
       <c r="P6">
-        <v>0.002728318117251663</v>
+        <v>0.002698331310644468</v>
       </c>
       <c r="Q6">
-        <v>0.006129443178039842</v>
+        <v>0.006062074777695521</v>
       </c>
       <c r="R6">
-        <v>0.01390860024107324</v>
+        <v>0.01375573151840904</v>
       </c>
       <c r="S6">
-        <v>0.008790014954384744</v>
+        <v>0.008693404344043964</v>
       </c>
       <c r="T6">
-        <v>0.06641389846789152</v>
+        <v>0.06568394666469315</v>
       </c>
       <c r="U6">
-        <v>0.008395601828900628</v>
+        <v>0.008303326193298478</v>
       </c>
       <c r="V6">
-        <v>0.1229579800054655</v>
+        <v>0.1216065550583814</v>
       </c>
       <c r="W6">
-        <v>0.01214236946923035</v>
+        <v>0.01200891329975928</v>
       </c>
       <c r="X6">
-        <v>0.05047306027414464</v>
+        <v>0.04991831341829091</v>
       </c>
       <c r="Y6">
-        <v>0.02676149311398067</v>
+        <v>0.02646735889500729</v>
       </c>
       <c r="Z6">
-        <v>0.06301718668125389</v>
+        <v>0.06232456796571941</v>
       </c>
       <c r="AA6">
-        <v>0.06518387408592695</v>
+        <v>0.06446744141857676</v>
       </c>
       <c r="AB6">
-        <v>0.00355525584640397</v>
+        <v>0.003516180208987975</v>
       </c>
       <c r="AC6">
-        <v>0.00462639847744024</v>
+        <v>0.004575549965474717</v>
       </c>
       <c r="AD6">
-        <v>0.01154725075118409</v>
+        <v>0.01142033550148097</v>
       </c>
       <c r="AE6">
-        <v>0.007293222914675762</v>
+        <v>0.00721306347003378</v>
       </c>
       <c r="AF6">
-        <v>0.002846101420602571</v>
+        <v>0.002814820063658006</v>
       </c>
       <c r="AG6">
-        <v>0.0972121266509208</v>
+        <v>0.09614367307751866</v>
       </c>
       <c r="AH6">
-        <v>0.06804575741788714</v>
+        <v>0.06729786993540186</v>
       </c>
       <c r="AI6">
-        <v>0.009960585388581288</v>
+        <v>0.009851109097728987</v>
       </c>
       <c r="AJ6">
-        <v>0.0184779229405993</v>
+        <v>0.01827483302296147</v>
       </c>
       <c r="AK6">
-        <v>0.01351005450429638</v>
+        <v>0.01336156617769277</v>
       </c>
       <c r="AL6">
-        <v>3.691130707428152E-05</v>
+        <v>3.650561676278285E-05</v>
       </c>
       <c r="AM6">
-        <v>0.04609837428074648</v>
+        <v>0.0455917093776613</v>
       </c>
       <c r="AN6">
-        <v>0.006782081658755164</v>
+        <v>0.006707540141836981</v>
       </c>
       <c r="AO6">
-        <v>0.007872433721655884</v>
+        <v>0.007785908200292907</v>
       </c>
       <c r="AP6">
-        <v>4.657685220227744E-05</v>
+        <v>4.606492837252676E-05</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.01246683596917956</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -2206,100 +2206,100 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.00282676936157604</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1282428530549949</v>
+        <v>0.124644175938417</v>
       </c>
       <c r="M2">
-        <v>0.1601945457159404</v>
+        <v>0.1563992131256457</v>
       </c>
       <c r="N2">
-        <v>0.2769058661108559</v>
+        <v>0.2723922016235967</v>
       </c>
       <c r="O2">
-        <v>0.2897995008693204</v>
+        <v>0.2852064789634023</v>
       </c>
       <c r="P2">
-        <v>0.2898906779789012</v>
+        <v>0.2852970948984041</v>
       </c>
       <c r="Q2">
-        <v>0.2978716273791616</v>
+        <v>0.2932289233521884</v>
       </c>
       <c r="R2">
-        <v>0.3367058024582151</v>
+        <v>0.3318240828279809</v>
       </c>
       <c r="S2">
-        <v>0.3992677849463029</v>
+        <v>0.3940010104010316</v>
       </c>
       <c r="T2">
-        <v>0.4543692012737061</v>
+        <v>0.4487632899182097</v>
       </c>
       <c r="U2">
-        <v>0.4869794507527254</v>
+        <v>0.4811728306545853</v>
       </c>
       <c r="V2">
-        <v>0.557385562763012</v>
+        <v>0.5511456088989003</v>
       </c>
       <c r="W2">
-        <v>0.5612469481256104</v>
+        <v>0.5549832283040659</v>
       </c>
       <c r="X2">
-        <v>0.6442311658786933</v>
+        <v>0.6374566968825617</v>
       </c>
       <c r="Y2">
-        <v>0.6456126685946891</v>
+        <v>0.6388296967604156</v>
       </c>
       <c r="Z2">
-        <v>0.7342895432128952</v>
+        <v>0.7269607851828538</v>
       </c>
       <c r="AA2">
-        <v>0.7646058265757981</v>
+        <v>0.7570904786480219</v>
       </c>
       <c r="AB2">
-        <v>0.7683279480497718</v>
+        <v>0.7607896913024391</v>
       </c>
       <c r="AC2">
-        <v>0.7684910666398511</v>
+        <v>0.7609518059343262</v>
       </c>
       <c r="AD2">
-        <v>0.7687839013595488</v>
+        <v>0.7612428383222621</v>
       </c>
       <c r="AE2">
-        <v>0.791382443424744</v>
+        <v>0.7837022914495942</v>
       </c>
       <c r="AF2">
-        <v>0.7926880374725979</v>
+        <v>0.7849998498600662</v>
       </c>
       <c r="AG2">
-        <v>0.8981934066505181</v>
+        <v>0.8898558572475013</v>
       </c>
       <c r="AH2">
-        <v>0.921353548556504</v>
+        <v>0.9128734536950605</v>
       </c>
       <c r="AI2">
-        <v>0.9372964047266681</v>
+        <v>0.9287181851753745</v>
       </c>
       <c r="AJ2">
-        <v>0.9455075417478476</v>
+        <v>0.9368787844971029</v>
       </c>
       <c r="AK2">
-        <v>0.9597260758761845</v>
+        <v>0.951009806749489</v>
       </c>
       <c r="AL2">
-        <v>0.9611394567842731</v>
+        <v>0.9524144886163415</v>
       </c>
       <c r="AM2">
-        <v>0.9907807804704888</v>
+        <v>0.9818733766296506</v>
       </c>
       <c r="AN2">
-        <v>0.9940366781801766</v>
+        <v>0.9851092350220707</v>
       </c>
       <c r="AO2">
-        <v>0.9999758778770361</v>
+        <v>0.9910118802821347</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.9910358539388633</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -2468,100 +2468,100 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.003336327932820915</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1028728264573115</v>
+        <v>0.09831669277681253</v>
       </c>
       <c r="M4">
-        <v>0.1188942181588071</v>
+        <v>0.1141417445831643</v>
       </c>
       <c r="N4">
-        <v>0.247654696876925</v>
+        <v>0.2413242817989949</v>
       </c>
       <c r="O4">
-        <v>0.2663606179200214</v>
+        <v>0.2598009644185761</v>
       </c>
       <c r="P4">
-        <v>0.2712273051450143</v>
+        <v>0.2646080110781764</v>
       </c>
       <c r="Q4">
-        <v>0.2803735623935435</v>
+        <v>0.273642182234399</v>
       </c>
       <c r="R4">
-        <v>0.300227462651977</v>
+        <v>0.2932527757459801</v>
       </c>
       <c r="S4">
-        <v>0.3104149887816177</v>
+        <v>0.3033154551800692</v>
       </c>
       <c r="T4">
-        <v>0.3907757260460759</v>
+        <v>0.3826913829459422</v>
       </c>
       <c r="U4">
-        <v>0.3971395013486698</v>
+        <v>0.3889771710799486</v>
       </c>
       <c r="V4">
-        <v>0.5022534357340565</v>
+        <v>0.4928029490279978</v>
       </c>
       <c r="W4">
-        <v>0.5159894742725746</v>
+        <v>0.5063706543519867</v>
       </c>
       <c r="X4">
-        <v>0.5342869567677245</v>
+        <v>0.5244439037804075</v>
       </c>
       <c r="Y4">
-        <v>0.557162613555569</v>
+        <v>0.5470392226214147</v>
       </c>
       <c r="Z4">
-        <v>0.6069487952293942</v>
+        <v>0.5962152816622267</v>
       </c>
       <c r="AA4">
-        <v>0.686868452078843</v>
+        <v>0.6751555343913525</v>
       </c>
       <c r="AB4">
-        <v>0.687023703688752</v>
+        <v>0.6753088834146835</v>
       </c>
       <c r="AC4">
-        <v>0.6929892908955692</v>
+        <v>0.6812013631918541</v>
       </c>
       <c r="AD4">
-        <v>0.7051258068106824</v>
+        <v>0.6931891478165413</v>
       </c>
       <c r="AE4">
-        <v>0.7089068823599093</v>
+        <v>0.6969238868183135</v>
       </c>
       <c r="AF4">
-        <v>0.7115706218925475</v>
+        <v>0.6995549825987563</v>
       </c>
       <c r="AG4">
-        <v>0.8101948786634494</v>
+        <v>0.7969706130159792</v>
       </c>
       <c r="AH4">
-        <v>0.8826143827658464</v>
+        <v>0.8685026263119121</v>
       </c>
       <c r="AI4">
-        <v>0.8904892835716246</v>
+        <v>0.8762810213192377</v>
       </c>
       <c r="AJ4">
-        <v>0.9115281348523495</v>
+        <v>0.8970620444454946</v>
       </c>
       <c r="AK4">
-        <v>0.9268810738451186</v>
+        <v>0.9122268353367659</v>
       </c>
       <c r="AL4">
-        <v>0.9276641960507409</v>
+        <v>0.9130003604902343</v>
       </c>
       <c r="AM4">
-        <v>0.978614127648047</v>
+        <v>0.9633259078633866</v>
       </c>
       <c r="AN4">
-        <v>0.9908289976908624</v>
+        <v>0.9753910863969945</v>
       </c>
       <c r="AO4">
-        <v>0.9999961282258207</v>
+        <v>0.9844458750404655</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.9844496993665987</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2730,100 +2730,100 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.00149228814728463</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.09500482300134633</v>
+        <v>0.09248474330721594</v>
       </c>
       <c r="M6">
-        <v>0.126904266243473</v>
+        <v>0.1240335813800516</v>
       </c>
       <c r="N6">
-        <v>0.2503389028476687</v>
+        <v>0.2461115541285646</v>
       </c>
       <c r="O6">
-        <v>0.2551871054494307</v>
+        <v>0.250906470380435</v>
       </c>
       <c r="P6">
-        <v>0.2579154235666823</v>
+        <v>0.2536048016910794</v>
       </c>
       <c r="Q6">
-        <v>0.2640448667447222</v>
+        <v>0.259666876468775</v>
       </c>
       <c r="R6">
-        <v>0.2779534669857954</v>
+        <v>0.273422607987184</v>
       </c>
       <c r="S6">
-        <v>0.2867434819401802</v>
+        <v>0.282116012331228</v>
       </c>
       <c r="T6">
-        <v>0.3531573804080717</v>
+        <v>0.3477999589959211</v>
       </c>
       <c r="U6">
-        <v>0.3615529822369724</v>
+        <v>0.3561032851892196</v>
       </c>
       <c r="V6">
-        <v>0.4845109622424378</v>
+        <v>0.477709840247601</v>
       </c>
       <c r="W6">
-        <v>0.4966533317116682</v>
+        <v>0.4897187535473603</v>
       </c>
       <c r="X6">
-        <v>0.5471263919858128</v>
+        <v>0.5396370669656512</v>
       </c>
       <c r="Y6">
-        <v>0.5738878850997935</v>
+        <v>0.5661044258606585</v>
       </c>
       <c r="Z6">
-        <v>0.6369050717810474</v>
+        <v>0.6284289938263778</v>
       </c>
       <c r="AA6">
-        <v>0.7020889458669743</v>
+        <v>0.6928964352449546</v>
       </c>
       <c r="AB6">
-        <v>0.7056442017133783</v>
+        <v>0.6964126154539426</v>
       </c>
       <c r="AC6">
-        <v>0.7102706001908186</v>
+        <v>0.7009881654194173</v>
       </c>
       <c r="AD6">
-        <v>0.7218178509420027</v>
+        <v>0.7124085009208982</v>
       </c>
       <c r="AE6">
-        <v>0.7291110738566784</v>
+        <v>0.7196215643909321</v>
       </c>
       <c r="AF6">
-        <v>0.731957175277281</v>
+        <v>0.72243638445459</v>
       </c>
       <c r="AG6">
-        <v>0.8291693019282018</v>
+        <v>0.8185800575321087</v>
       </c>
       <c r="AH6">
-        <v>0.8972150593460889</v>
+        <v>0.8858779274675106</v>
       </c>
       <c r="AI6">
-        <v>0.9071756447346702</v>
+        <v>0.8957290365652396</v>
       </c>
       <c r="AJ6">
-        <v>0.9256535676752694</v>
+        <v>0.9140038695882011</v>
       </c>
       <c r="AK6">
-        <v>0.9391636221795658</v>
+        <v>0.9273654357658939</v>
       </c>
       <c r="AL6">
-        <v>0.9392005334866401</v>
+        <v>0.9274019413826567</v>
       </c>
       <c r="AM6">
-        <v>0.9852989077673866</v>
+        <v>0.9729936507603181</v>
       </c>
       <c r="AN6">
-        <v>0.9920809894261418</v>
+        <v>0.979701190902155</v>
       </c>
       <c r="AO6">
-        <v>0.9999534231477977</v>
+        <v>0.9874870991024479</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.9875331640308205</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.557385562763012</v>
+        <v>0.5511456088989003</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -3631,16 +3631,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5022534357340565</v>
+        <v>0.5063706543519867</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5471263919858128</v>
+        <v>0.5396370669656512</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7342895432128952</v>
+        <v>0.7269607851828538</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -4095,16 +4095,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7051258068106824</v>
+        <v>0.7969706130159792</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -4177,16 +4177,16 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7020889458669743</v>
+        <v>0.7009881654194173</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8981934066505181</v>
+        <v>0.8898558572475013</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -4559,16 +4559,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8101948786634494</v>
+        <v>0.8685026263119121</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8291693019282018</v>
+        <v>0.8185800575321087</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.921353548556504</v>
+        <v>0.9128734536950605</v>
       </c>
       <c r="G2">
         <v>24</v>
@@ -5023,16 +5023,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9115281348523495</v>
+        <v>0.9122268353367659</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -5105,16 +5105,16 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9071756447346702</v>
+        <v>0.9140038695882011</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>54</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/54_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/54_11R22.xlsx
@@ -180,40 +180,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -223,9 +226,6 @@
   </si>
   <si>
     <t>50%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -755,100 +755,100 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.124644175938417</v>
+        <v>0.1988744399481421</v>
       </c>
       <c r="M2">
-        <v>0.03175503718722875</v>
+        <v>0.003687834293421185</v>
       </c>
       <c r="N2">
-        <v>0.115992988497951</v>
+        <v>0.1806958247290865</v>
       </c>
       <c r="O2">
-        <v>0.01281427733980562</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>9.06159350017947E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.00793182845378429</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.03859515947579245</v>
+        <v>0.01806088446610212</v>
       </c>
       <c r="S2">
-        <v>0.06217692757305072</v>
+        <v>0.06761291317604373</v>
       </c>
       <c r="T2">
-        <v>0.0547622795171781</v>
+        <v>0.05203262030642512</v>
       </c>
       <c r="U2">
-        <v>0.03240954073637561</v>
+        <v>0.005063133148211238</v>
       </c>
       <c r="V2">
-        <v>0.069972778244315</v>
+        <v>0.08399422159565362</v>
       </c>
       <c r="W2">
-        <v>0.003837619405165615</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.08247346857849575</v>
+        <v>0.1102617416466812</v>
       </c>
       <c r="Y2">
-        <v>0.001372999877853884</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.08813108842243823</v>
+        <v>0.1221500165114301</v>
       </c>
       <c r="AA2">
-        <v>0.03012969346516808</v>
+        <v>0.0002725230051875658</v>
       </c>
       <c r="AB2">
-        <v>0.003699212654417156</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0001621146318871093</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0002910323879359048</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.02245945312733212</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.001297558410471997</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.1048560073874351</v>
+        <v>0.1572938471736156</v>
       </c>
       <c r="AH2">
-        <v>0.02301759644755914</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.01584473148031404</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.008160599321728393</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.01413102225238605</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.001404681866852471</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.02945888801330913</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0032358583924201</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.00590264526006402</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.397365672861122E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.008964146061136682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -886,100 +886,100 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07377253147745182</v>
+        <v>0.08205339613481134</v>
       </c>
       <c r="M3">
-        <v>0.01607606990654131</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.2112704003923189</v>
+        <v>0.339798761206412</v>
       </c>
       <c r="O3">
-        <v>0.05733003359050464</v>
+        <v>0.05123126300644845</v>
       </c>
       <c r="P3">
-        <v>0.004904000786162094</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.009739724533625363</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.009817260578173706</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0009354908612582309</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.08560735099464824</v>
+        <v>0.1042382481698997</v>
       </c>
       <c r="U3">
-        <v>0.0005282961181834853</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.1085017336404071</v>
+        <v>0.1471547025098113</v>
       </c>
       <c r="W3">
-        <v>0.0131643456679026</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.02005600753264631</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.03463939836352171</v>
+        <v>0.008696741515745749</v>
       </c>
       <c r="Z3">
-        <v>0.01007736231136938</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.09981060435519967</v>
+        <v>0.1308628260743499</v>
       </c>
       <c r="AB3">
-        <v>0.0001704505550385129</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.006009269776144189</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002576989646994997</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.007551717052242663</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.006848574661714953</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0537080446807425</v>
+        <v>0.04444169702117527</v>
       </c>
       <c r="AH3">
-        <v>0.07882388497748255</v>
+        <v>0.09152236436134618</v>
       </c>
       <c r="AI3">
-        <v>0.001101583460674038</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.02287728993906384</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.005553966429852443</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.01023540193751276</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.02516833150062306</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.01259864608241719</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.004348333650134983</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.001308579369990282</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.004888325169456568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1017,100 +1017,100 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.09831669277681253</v>
+        <v>0.1405431733625528</v>
       </c>
       <c r="M4">
-        <v>0.01582505180635173</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1271825372158307</v>
+        <v>0.1999268644393897</v>
       </c>
       <c r="O4">
-        <v>0.01847668261958114</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.00480704665960033</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.009034171156222539</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01961059351158119</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.01006267943408912</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.07937592776587296</v>
+        <v>0.1015776568489173</v>
       </c>
       <c r="U4">
-        <v>0.006285788134006368</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.1038257779480492</v>
+        <v>0.1518766305429183</v>
       </c>
       <c r="W4">
-        <v>0.0135677053239889</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.01807324942842082</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.02259531884100715</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.04917605904081197</v>
+        <v>0.03944957053158351</v>
       </c>
       <c r="AA4">
-        <v>0.07894025272912569</v>
+        <v>0.1006813729433227</v>
       </c>
       <c r="AB4">
-        <v>0.0001533490233310932</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.00589247977717051</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01198778462468718</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.00373473900177227</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002631095780442792</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.09741563041722294</v>
+        <v>0.1386894805348278</v>
       </c>
       <c r="AH4">
-        <v>0.07153201329593299</v>
+        <v>0.08544091798787015</v>
       </c>
       <c r="AI4">
-        <v>0.007778395007325622</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.02078102312625693</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.01516479089127121</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0007735251534683633</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.05032554737315231</v>
+        <v>0.04181433280861769</v>
       </c>
       <c r="AN4">
-        <v>0.01206517853360788</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.009054788643471047</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>3.824326133118951E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0155503006334015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1145,100 +1145,100 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01253837002190802</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1044397487345904</v>
+        <v>0.1579755245310644</v>
       </c>
       <c r="M5">
-        <v>0.08484395593981985</v>
+        <v>0.1163894673777379</v>
       </c>
       <c r="N5">
-        <v>0.1039700403911019</v>
+        <v>0.1569787127040418</v>
       </c>
       <c r="O5">
-        <v>0.003025601795405512</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.00237964609681244</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.009870014368893554</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.008127515108835555</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.06478467815551216</v>
+        <v>0.073819805556488</v>
       </c>
       <c r="T5">
-        <v>0.02749537615713393</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0937246679486203</v>
+        <v>0.1352360535316171</v>
       </c>
       <c r="V5">
-        <v>0.04600426440827141</v>
+        <v>0.0339641402289646</v>
       </c>
       <c r="W5">
-        <v>0.008799269707154575</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.04595395239316985</v>
+        <v>0.03385736841537048</v>
       </c>
       <c r="Y5">
-        <v>0.003909853799997452</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.08944995594323001</v>
+        <v>0.1261642890140003</v>
       </c>
       <c r="AA5">
-        <v>0.002776060789935414</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.002158948084109721</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0005796598014263203</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.008906899375348869</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.01924450417618941</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.03668211385250682</v>
+        <v>0.01418073621647702</v>
       </c>
       <c r="AG5">
-        <v>0.0995169771990518</v>
+        <v>0.1475284525205708</v>
       </c>
       <c r="AH5">
-        <v>0.001579881754106604</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.02809984123365191</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.00243633944331195</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.02101429650412117</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.03184028956629521</v>
+        <v>0.003905449903667396</v>
       </c>
       <c r="AM5">
-        <v>0.02074140665734391</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.004182205087298147</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.003769909296010075</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.007153756208835726</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1279,100 +1279,100 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.09248474330721594</v>
+        <v>0.1277426176203382</v>
       </c>
       <c r="M6">
-        <v>0.03154883807283564</v>
+        <v>0.003166415019443898</v>
       </c>
       <c r="N6">
-        <v>0.122077972748513</v>
+        <v>0.1882424515411407</v>
       </c>
       <c r="O6">
-        <v>0.00479491625187038</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.002698331310644468</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.006062074777695521</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.01375573151840904</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.008693404344043964</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.06568394666469315</v>
+        <v>0.07295158006108068</v>
       </c>
       <c r="U6">
-        <v>0.008303326193298478</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.1216065550583814</v>
+        <v>0.1872786942054683</v>
       </c>
       <c r="W6">
-        <v>0.01200891329975928</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.04991831341829091</v>
+        <v>0.04072062010601154</v>
       </c>
       <c r="Y6">
-        <v>0.02646735889500729</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.06232456796571941</v>
+        <v>0.06608373031294298</v>
       </c>
       <c r="AA6">
-        <v>0.06446744141857676</v>
+        <v>0.07046457993492611</v>
       </c>
       <c r="AB6">
-        <v>0.003516180208987975</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.004575549965474717</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.01142033550148097</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.00721306347003378</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.002814820063658006</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.09614367307751866</v>
+        <v>0.1352228638662002</v>
       </c>
       <c r="AH6">
-        <v>0.06729786993540186</v>
+        <v>0.07625105401786814</v>
       </c>
       <c r="AI6">
-        <v>0.009851109097728987</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.01827483302296147</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.01336156617769277</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>3.650561676278285E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0455917093776613</v>
+        <v>0.0318753933145792</v>
       </c>
       <c r="AN6">
-        <v>0.006707540141836981</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.007785908200292907</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>4.606492837252676E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.01246683596917956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1410,100 +1410,100 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.01522727774945864</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.08261673676066277</v>
+        <v>0.1168745556455114</v>
       </c>
       <c r="N7">
-        <v>0.03853602211913924</v>
+        <v>0.01896057896354591</v>
       </c>
       <c r="O7">
-        <v>0.03878930770060514</v>
+        <v>0.01952318777602122</v>
       </c>
       <c r="P7">
-        <v>0.02647910031895426</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.007621828760478901</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.01403707000841936</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.001183421024265835</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.07784373009942576</v>
+        <v>0.1062725482431406</v>
       </c>
       <c r="U7">
-        <v>0.01000341615168224</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.07063085705159509</v>
+        <v>0.09025100482764439</v>
       </c>
       <c r="W7">
-        <v>0.08178208330490284</v>
+        <v>0.1150205875401981</v>
       </c>
       <c r="X7">
-        <v>0.01310089189630111</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.08878511296528799</v>
+        <v>0.1305760178104721</v>
       </c>
       <c r="Z7">
-        <v>0.0002995391195988861</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.1128389912919224</v>
+        <v>0.1840055254928711</v>
       </c>
       <c r="AB7">
-        <v>0.01341189548063064</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.02770087162578857</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.00234890500358808</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.02225249542757674</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.01379696960801128</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.0002480165977222257</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.09076777938219212</v>
+        <v>0.1349800016136294</v>
       </c>
       <c r="AI7">
-        <v>0.04393199317089991</v>
+        <v>0.03094634162722479</v>
       </c>
       <c r="AJ7">
-        <v>0.008484215519256551</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>0.006040587635824127</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>0.01901680496008551</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>0.001348325251974653</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>0.05367577595732859</v>
+        <v>0.05258965045974102</v>
       </c>
       <c r="AO7">
-        <v>0.008363623443456727</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.004969233017530591</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>0.003867121595433103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1520,16 +1520,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0797160888274963</v>
+        <v>0.0824123131832363</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0567428351560752</v>
+        <v>0.05129960033025569</v>
       </c>
       <c r="H8">
-        <v>0.01497658986301434</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1541,40 +1541,40 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06271686251954882</v>
+        <v>0.05939023479562203</v>
       </c>
       <c r="M8">
-        <v>0.0005050313650013842</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.04347366827191568</v>
+        <v>0.03332914716894705</v>
       </c>
       <c r="O8">
-        <v>0.144468283032432</v>
+        <v>0.1701063095893613</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.07238005726913839</v>
+        <v>0.07247711433765308</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.1381735017326778</v>
+        <v>0.1615812775737527</v>
       </c>
       <c r="T8">
-        <v>0.03719914590324344</v>
+        <v>0.0248315518549252</v>
       </c>
       <c r="U8">
-        <v>0.0159526052944613</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.0337944695013078</v>
+        <v>0.02022059335658593</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1583,25 +1583,25 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.1093538626543282</v>
+        <v>0.1225507959538731</v>
       </c>
       <c r="AA8">
-        <v>0.1279958210048016</v>
+        <v>0.1477976288784157</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.0004510271484523284</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.003360837732137266</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.05873931272396819</v>
+        <v>0.05400343297737194</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1663,100 +1663,100 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1030620125115983</v>
+        <v>0.1855550709122531</v>
       </c>
       <c r="J9">
-        <v>0.0002737237451694789</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.05636834217711227</v>
+        <v>0.06696749014045994</v>
       </c>
       <c r="L9">
-        <v>0.03941003297229612</v>
+        <v>0.02389859347473987</v>
       </c>
       <c r="M9">
-        <v>0.01160135860954149</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.0008472081337675472</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.00522998914968474</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.03159794975076291</v>
+        <v>0.004058301559513688</v>
       </c>
       <c r="Q9">
-        <v>0.05137804995292359</v>
+        <v>0.05429368065040242</v>
       </c>
       <c r="R9">
-        <v>0.01419520924173773</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.1169798904137343</v>
+        <v>0.2209022059322329</v>
       </c>
       <c r="T9">
-        <v>0.01475454632658255</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.02224807884073209</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.04229106274100951</v>
+        <v>0.03121552418410215</v>
       </c>
       <c r="W9">
-        <v>0.04548369756651571</v>
+        <v>0.03932383602877915</v>
       </c>
       <c r="X9">
-        <v>0.08054161512946131</v>
+        <v>0.1283601786616299</v>
       </c>
       <c r="Y9">
-        <v>0.008534361197057989</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.01499757097005781</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.02956757147515056</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.0001906526313480604</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.03279990720353861</v>
+        <v>0.007110904310469961</v>
       </c>
       <c r="AD9">
-        <v>0.02493643849888719</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.114700020755554</v>
+        <v>0.2151120372583659</v>
       </c>
       <c r="AF9">
-        <v>0.0001748656435988019</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.03567245708422674</v>
+        <v>0.01440629870883061</v>
       </c>
       <c r="AH9">
-        <v>0.003540129854103157</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.01219842789820515</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.03041827171972148</v>
+        <v>0.001062281696677696</v>
       </c>
       <c r="AK9">
-        <v>0.03304509125035612</v>
+        <v>0.007733596481542485</v>
       </c>
       <c r="AL9">
-        <v>0.004678117635518362</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0.001282065294532588</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>0.01700128362551363</v>
+        <v>0</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -1782,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.001217288928625649</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.008919277991397634</v>
+        <v>0.009995421521469868</v>
       </c>
       <c r="H10">
-        <v>0.07065147416002253</v>
+        <v>0.0707507207439292</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1806,34 +1806,34 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.06232389426209199</v>
+        <v>0.06255492276655461</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.1873592249174144</v>
+        <v>0.185611599813858</v>
       </c>
       <c r="P10">
-        <v>0.09357246428660901</v>
+        <v>0.09330899179283066</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.0829857169909472</v>
+        <v>0.08288977719072002</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.20089651245336</v>
+        <v>0.1989346630766689</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.01964599958337458</v>
+        <v>0.02055239536080009</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1848,25 +1848,25 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.2087668180660959</v>
+        <v>0.2066804230228702</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.002344646310815901</v>
+        <v>0.003524831783497462</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.005472100061417949</v>
+        <v>0.006602794341369353</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.05706187091645284</v>
+        <v>0.05737616965680607</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1934,100 +1934,100 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1068550028946053</v>
+        <v>0.1423231977632955</v>
       </c>
       <c r="M11">
-        <v>0.04211855556870071</v>
+        <v>0.02244163054908615</v>
       </c>
       <c r="N11">
-        <v>0.1395311025202917</v>
+        <v>0.2028341185102148</v>
       </c>
       <c r="O11">
-        <v>0.1110538259260721</v>
+        <v>0.1500987478013331</v>
       </c>
       <c r="P11">
-        <v>0.004709985768825671</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.005482735334080888</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.001389918275579222</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.002841158145297922</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.05577445640785075</v>
+        <v>0.04773017914795333</v>
       </c>
       <c r="U11">
-        <v>0.0002347370505512285</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.1281608559803804</v>
+        <v>0.1817782368373404</v>
       </c>
       <c r="W11">
-        <v>0.06072191664735896</v>
+        <v>0.05689208579779349</v>
       </c>
       <c r="X11">
-        <v>0.01354278293717399</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.03079088612224353</v>
+        <v>0.001464594857132126</v>
       </c>
       <c r="Z11">
-        <v>0.004205740483171465</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.08335462545372824</v>
+        <v>0.09880424987363504</v>
       </c>
       <c r="AB11">
-        <v>0.002017498381532418</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.0181973730828981</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.004180688694489967</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.002148346814878502</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.009375124363640608</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.01221324272256336</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.08164211769889544</v>
+        <v>0.09563295886221601</v>
       </c>
       <c r="AI11">
-        <v>0.007663318141490708</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.01316672323086972</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>0.0005243734746936956</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.01349515438408883</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>0.01014613961563822</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>0.02672584084738804</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>0.0003922084936314392</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.0006383670620124077</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>0.006705197475376319</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2209,97 +2209,97 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.124644175938417</v>
+        <v>0.1988744399481421</v>
       </c>
       <c r="M2">
-        <v>0.1563992131256457</v>
+        <v>0.2025622742415632</v>
       </c>
       <c r="N2">
-        <v>0.2723922016235967</v>
+        <v>0.3832580989706498</v>
       </c>
       <c r="O2">
-        <v>0.2852064789634023</v>
+        <v>0.3832580989706498</v>
       </c>
       <c r="P2">
-        <v>0.2852970948984041</v>
+        <v>0.3832580989706498</v>
       </c>
       <c r="Q2">
-        <v>0.2932289233521884</v>
+        <v>0.3832580989706498</v>
       </c>
       <c r="R2">
-        <v>0.3318240828279809</v>
+        <v>0.4013189834367519</v>
       </c>
       <c r="S2">
-        <v>0.3940010104010316</v>
+        <v>0.4689318966127956</v>
       </c>
       <c r="T2">
-        <v>0.4487632899182097</v>
+        <v>0.5209645169192207</v>
       </c>
       <c r="U2">
-        <v>0.4811728306545853</v>
+        <v>0.526027650067432</v>
       </c>
       <c r="V2">
-        <v>0.5511456088989003</v>
+        <v>0.6100218716630856</v>
       </c>
       <c r="W2">
-        <v>0.5549832283040659</v>
+        <v>0.6100218716630856</v>
       </c>
       <c r="X2">
-        <v>0.6374566968825617</v>
+        <v>0.7202836133097668</v>
       </c>
       <c r="Y2">
-        <v>0.6388296967604156</v>
+        <v>0.7202836133097668</v>
       </c>
       <c r="Z2">
-        <v>0.7269607851828538</v>
+        <v>0.8424336298211968</v>
       </c>
       <c r="AA2">
-        <v>0.7570904786480219</v>
+        <v>0.8427061528263844</v>
       </c>
       <c r="AB2">
-        <v>0.7607896913024391</v>
+        <v>0.8427061528263844</v>
       </c>
       <c r="AC2">
-        <v>0.7609518059343262</v>
+        <v>0.8427061528263844</v>
       </c>
       <c r="AD2">
-        <v>0.7612428383222621</v>
+        <v>0.8427061528263844</v>
       </c>
       <c r="AE2">
-        <v>0.7837022914495942</v>
+        <v>0.8427061528263844</v>
       </c>
       <c r="AF2">
-        <v>0.7849998498600662</v>
+        <v>0.8427061528263844</v>
       </c>
       <c r="AG2">
-        <v>0.8898558572475013</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9128734536950605</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9287181851753745</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9368787844971029</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.951009806749489</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.9524144886163415</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.9818733766296506</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.9851092350220707</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0.9910118802821347</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0.9910358539388633</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -2340,97 +2340,97 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07377253147745182</v>
+        <v>0.08205339613481134</v>
       </c>
       <c r="M3">
-        <v>0.08984860138399312</v>
+        <v>0.08205339613481134</v>
       </c>
       <c r="N3">
-        <v>0.301119001776312</v>
+        <v>0.4218521573412233</v>
       </c>
       <c r="O3">
-        <v>0.3584490353668167</v>
+        <v>0.4730834203476718</v>
       </c>
       <c r="P3">
-        <v>0.3633530361529788</v>
+        <v>0.4730834203476718</v>
       </c>
       <c r="Q3">
-        <v>0.3730927606866041</v>
+        <v>0.4730834203476718</v>
       </c>
       <c r="R3">
-        <v>0.3829100212647779</v>
+        <v>0.4730834203476718</v>
       </c>
       <c r="S3">
-        <v>0.3838455121260361</v>
+        <v>0.4730834203476718</v>
       </c>
       <c r="T3">
-        <v>0.4694528631206843</v>
+        <v>0.5773216685175715</v>
       </c>
       <c r="U3">
-        <v>0.4699811592388678</v>
+        <v>0.5773216685175715</v>
       </c>
       <c r="V3">
-        <v>0.5784828928792749</v>
+        <v>0.7244763710273828</v>
       </c>
       <c r="W3">
-        <v>0.5916472385471775</v>
+        <v>0.7244763710273828</v>
       </c>
       <c r="X3">
-        <v>0.6117032460798238</v>
+        <v>0.7244763710273828</v>
       </c>
       <c r="Y3">
-        <v>0.6463426444433455</v>
+        <v>0.7331731125431286</v>
       </c>
       <c r="Z3">
-        <v>0.6564200067547149</v>
+        <v>0.7331731125431286</v>
       </c>
       <c r="AA3">
-        <v>0.7562306111099146</v>
+        <v>0.8640359386174785</v>
       </c>
       <c r="AB3">
-        <v>0.7564010616649531</v>
+        <v>0.8640359386174785</v>
       </c>
       <c r="AC3">
-        <v>0.7624103314410974</v>
+        <v>0.8640359386174785</v>
       </c>
       <c r="AD3">
-        <v>0.7649873210880924</v>
+        <v>0.8640359386174785</v>
       </c>
       <c r="AE3">
-        <v>0.7725390381403351</v>
+        <v>0.8640359386174785</v>
       </c>
       <c r="AF3">
-        <v>0.77938761280205</v>
+        <v>0.8640359386174785</v>
       </c>
       <c r="AG3">
-        <v>0.8330956574827926</v>
+        <v>0.9084776356386538</v>
       </c>
       <c r="AH3">
-        <v>0.9119195424602751</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9130211259209491</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9358984158600129</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9414523822898653</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0.951687784227378</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>0.976856115728001</v>
+        <v>1</v>
       </c>
       <c r="AN3">
-        <v>0.9894547618104182</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>0.9938030954605532</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>0.9951116748305435</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2471,100 +2471,100 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.09831669277681253</v>
+        <v>0.1405431733625528</v>
       </c>
       <c r="M4">
-        <v>0.1141417445831643</v>
+        <v>0.1405431733625528</v>
       </c>
       <c r="N4">
-        <v>0.2413242817989949</v>
+        <v>0.3404700378019426</v>
       </c>
       <c r="O4">
-        <v>0.2598009644185761</v>
+        <v>0.3404700378019426</v>
       </c>
       <c r="P4">
-        <v>0.2646080110781764</v>
+        <v>0.3404700378019426</v>
       </c>
       <c r="Q4">
-        <v>0.273642182234399</v>
+        <v>0.3404700378019426</v>
       </c>
       <c r="R4">
-        <v>0.2932527757459801</v>
+        <v>0.3404700378019426</v>
       </c>
       <c r="S4">
-        <v>0.3033154551800692</v>
+        <v>0.3404700378019426</v>
       </c>
       <c r="T4">
-        <v>0.3826913829459422</v>
+        <v>0.4420476946508599</v>
       </c>
       <c r="U4">
-        <v>0.3889771710799486</v>
+        <v>0.4420476946508599</v>
       </c>
       <c r="V4">
-        <v>0.4928029490279978</v>
+        <v>0.5939243251937781</v>
       </c>
       <c r="W4">
-        <v>0.5063706543519867</v>
+        <v>0.5939243251937781</v>
       </c>
       <c r="X4">
-        <v>0.5244439037804075</v>
+        <v>0.5939243251937781</v>
       </c>
       <c r="Y4">
-        <v>0.5470392226214147</v>
+        <v>0.5939243251937781</v>
       </c>
       <c r="Z4">
-        <v>0.5962152816622267</v>
+        <v>0.6333738957253616</v>
       </c>
       <c r="AA4">
-        <v>0.6751555343913525</v>
+        <v>0.7340552686686843</v>
       </c>
       <c r="AB4">
-        <v>0.6753088834146835</v>
+        <v>0.7340552686686843</v>
       </c>
       <c r="AC4">
-        <v>0.6812013631918541</v>
+        <v>0.7340552686686843</v>
       </c>
       <c r="AD4">
-        <v>0.6931891478165413</v>
+        <v>0.7340552686686843</v>
       </c>
       <c r="AE4">
-        <v>0.6969238868183135</v>
+        <v>0.7340552686686843</v>
       </c>
       <c r="AF4">
-        <v>0.6995549825987563</v>
+        <v>0.7340552686686843</v>
       </c>
       <c r="AG4">
-        <v>0.7969706130159792</v>
+        <v>0.8727447492035121</v>
       </c>
       <c r="AH4">
-        <v>0.8685026263119121</v>
+        <v>0.9581856671913822</v>
       </c>
       <c r="AI4">
-        <v>0.8762810213192377</v>
+        <v>0.9581856671913822</v>
       </c>
       <c r="AJ4">
-        <v>0.8970620444454946</v>
+        <v>0.9581856671913822</v>
       </c>
       <c r="AK4">
-        <v>0.9122268353367659</v>
+        <v>0.9581856671913822</v>
       </c>
       <c r="AL4">
-        <v>0.9130003604902343</v>
+        <v>0.9581856671913822</v>
       </c>
       <c r="AM4">
-        <v>0.9633259078633866</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN4">
-        <v>0.9753910863969945</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO4">
-        <v>0.9844458750404655</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP4">
-        <v>0.9844496993665987</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2599,103 +2599,103 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01253837002190802</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1169781187564985</v>
+        <v>0.1579755245310644</v>
       </c>
       <c r="M5">
-        <v>0.2018220746963183</v>
+        <v>0.2743649919088024</v>
       </c>
       <c r="N5">
-        <v>0.3057921150874202</v>
+        <v>0.4313437046128442</v>
       </c>
       <c r="O5">
-        <v>0.3088177168828257</v>
+        <v>0.4313437046128442</v>
       </c>
       <c r="P5">
-        <v>0.3111973629796381</v>
+        <v>0.4313437046128442</v>
       </c>
       <c r="Q5">
-        <v>0.3210673773485317</v>
+        <v>0.4313437046128442</v>
       </c>
       <c r="R5">
-        <v>0.3291948924573673</v>
+        <v>0.4313437046128442</v>
       </c>
       <c r="S5">
-        <v>0.3939795706128794</v>
+        <v>0.5051635101693323</v>
       </c>
       <c r="T5">
-        <v>0.4214749467700133</v>
+        <v>0.5051635101693323</v>
       </c>
       <c r="U5">
-        <v>0.5151996147186336</v>
+        <v>0.6403995637009494</v>
       </c>
       <c r="V5">
-        <v>0.5612038791269051</v>
+        <v>0.674363703929914</v>
       </c>
       <c r="W5">
-        <v>0.5700031488340597</v>
+        <v>0.674363703929914</v>
       </c>
       <c r="X5">
-        <v>0.6159571012272296</v>
+        <v>0.7082210723452844</v>
       </c>
       <c r="Y5">
-        <v>0.619866955027227</v>
+        <v>0.7082210723452844</v>
       </c>
       <c r="Z5">
-        <v>0.709316910970457</v>
+        <v>0.8343853613592846</v>
       </c>
       <c r="AA5">
-        <v>0.7120929717603924</v>
+        <v>0.8343853613592846</v>
       </c>
       <c r="AB5">
-        <v>0.7142519198445022</v>
+        <v>0.8343853613592846</v>
       </c>
       <c r="AC5">
-        <v>0.7148315796459285</v>
+        <v>0.8343853613592846</v>
       </c>
       <c r="AD5">
-        <v>0.7237384790212773</v>
+        <v>0.8343853613592846</v>
       </c>
       <c r="AE5">
-        <v>0.7429829831974667</v>
+        <v>0.8343853613592846</v>
       </c>
       <c r="AF5">
-        <v>0.7796650970499736</v>
+        <v>0.8485660975757616</v>
       </c>
       <c r="AG5">
-        <v>0.8791820742490254</v>
+        <v>0.9960945500963325</v>
       </c>
       <c r="AH5">
-        <v>0.880761956003132</v>
+        <v>0.9960945500963325</v>
       </c>
       <c r="AI5">
-        <v>0.908861797236784</v>
+        <v>0.9960945500963325</v>
       </c>
       <c r="AJ5">
-        <v>0.9112981366800958</v>
+        <v>0.9960945500963325</v>
       </c>
       <c r="AK5">
-        <v>0.932312433184217</v>
+        <v>0.9960945500963325</v>
       </c>
       <c r="AL5">
-        <v>0.9641527227505122</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM5">
-        <v>0.9848941294078561</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN5">
-        <v>0.9890763344951543</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO5">
-        <v>0.9928462437911644</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -2733,97 +2733,97 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.09248474330721594</v>
+        <v>0.1277426176203382</v>
       </c>
       <c r="M6">
-        <v>0.1240335813800516</v>
+        <v>0.1309090326397821</v>
       </c>
       <c r="N6">
-        <v>0.2461115541285646</v>
+        <v>0.3191514841809228</v>
       </c>
       <c r="O6">
-        <v>0.250906470380435</v>
+        <v>0.3191514841809228</v>
       </c>
       <c r="P6">
-        <v>0.2536048016910794</v>
+        <v>0.3191514841809228</v>
       </c>
       <c r="Q6">
-        <v>0.259666876468775</v>
+        <v>0.3191514841809228</v>
       </c>
       <c r="R6">
-        <v>0.273422607987184</v>
+        <v>0.3191514841809228</v>
       </c>
       <c r="S6">
-        <v>0.282116012331228</v>
+        <v>0.3191514841809228</v>
       </c>
       <c r="T6">
-        <v>0.3477999589959211</v>
+        <v>0.3921030642420035</v>
       </c>
       <c r="U6">
-        <v>0.3561032851892196</v>
+        <v>0.3921030642420035</v>
       </c>
       <c r="V6">
-        <v>0.477709840247601</v>
+        <v>0.5793817584474718</v>
       </c>
       <c r="W6">
-        <v>0.4897187535473603</v>
+        <v>0.5793817584474718</v>
       </c>
       <c r="X6">
-        <v>0.5396370669656512</v>
+        <v>0.6201023785534833</v>
       </c>
       <c r="Y6">
-        <v>0.5661044258606585</v>
+        <v>0.6201023785534833</v>
       </c>
       <c r="Z6">
-        <v>0.6284289938263778</v>
+        <v>0.6861861088664263</v>
       </c>
       <c r="AA6">
-        <v>0.6928964352449546</v>
+        <v>0.7566506888013524</v>
       </c>
       <c r="AB6">
-        <v>0.6964126154539426</v>
+        <v>0.7566506888013524</v>
       </c>
       <c r="AC6">
-        <v>0.7009881654194173</v>
+        <v>0.7566506888013524</v>
       </c>
       <c r="AD6">
-        <v>0.7124085009208982</v>
+        <v>0.7566506888013524</v>
       </c>
       <c r="AE6">
-        <v>0.7196215643909321</v>
+        <v>0.7566506888013524</v>
       </c>
       <c r="AF6">
-        <v>0.72243638445459</v>
+        <v>0.7566506888013524</v>
       </c>
       <c r="AG6">
-        <v>0.8185800575321087</v>
+        <v>0.8918735526675526</v>
       </c>
       <c r="AH6">
-        <v>0.8858779274675106</v>
+        <v>0.9681246066854208</v>
       </c>
       <c r="AI6">
-        <v>0.8957290365652396</v>
+        <v>0.9681246066854208</v>
       </c>
       <c r="AJ6">
-        <v>0.9140038695882011</v>
+        <v>0.9681246066854208</v>
       </c>
       <c r="AK6">
-        <v>0.9273654357658939</v>
+        <v>0.9681246066854208</v>
       </c>
       <c r="AL6">
-        <v>0.9274019413826567</v>
+        <v>0.9681246066854208</v>
       </c>
       <c r="AM6">
-        <v>0.9729936507603181</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.979701190902155</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.9874870991024479</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.9875331640308205</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2864,97 +2864,97 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.01522727774945864</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.09784401451012141</v>
+        <v>0.1168745556455114</v>
       </c>
       <c r="N7">
-        <v>0.1363800366292607</v>
+        <v>0.1358351346090573</v>
       </c>
       <c r="O7">
-        <v>0.1751693443298658</v>
+        <v>0.1553583223850785</v>
       </c>
       <c r="P7">
-        <v>0.2016484446488201</v>
+        <v>0.1553583223850785</v>
       </c>
       <c r="Q7">
-        <v>0.209270273409299</v>
+        <v>0.1553583223850785</v>
       </c>
       <c r="R7">
-        <v>0.2233073434177183</v>
+        <v>0.1553583223850785</v>
       </c>
       <c r="S7">
-        <v>0.2244907644419842</v>
+        <v>0.1553583223850785</v>
       </c>
       <c r="T7">
-        <v>0.3023344945414099</v>
+        <v>0.2616308706282191</v>
       </c>
       <c r="U7">
-        <v>0.3123379106930922</v>
+        <v>0.2616308706282191</v>
       </c>
       <c r="V7">
-        <v>0.3829687677446873</v>
+        <v>0.3518818754558635</v>
       </c>
       <c r="W7">
-        <v>0.4647508510495901</v>
+        <v>0.4669024629960616</v>
       </c>
       <c r="X7">
-        <v>0.4778517429458912</v>
+        <v>0.4669024629960616</v>
       </c>
       <c r="Y7">
-        <v>0.5666368559111792</v>
+        <v>0.5974784808065337</v>
       </c>
       <c r="Z7">
-        <v>0.5669363950307781</v>
+        <v>0.5974784808065337</v>
       </c>
       <c r="AA7">
-        <v>0.6797753863227005</v>
+        <v>0.7814840062994048</v>
       </c>
       <c r="AB7">
-        <v>0.6931872818033311</v>
+        <v>0.7814840062994048</v>
       </c>
       <c r="AC7">
-        <v>0.7208881534291197</v>
+        <v>0.7814840062994048</v>
       </c>
       <c r="AD7">
-        <v>0.7232370584327078</v>
+        <v>0.7814840062994048</v>
       </c>
       <c r="AE7">
-        <v>0.7454895538602846</v>
+        <v>0.7814840062994048</v>
       </c>
       <c r="AF7">
-        <v>0.7592865234682958</v>
+        <v>0.7814840062994048</v>
       </c>
       <c r="AG7">
-        <v>0.7595345400660181</v>
+        <v>0.7814840062994048</v>
       </c>
       <c r="AH7">
-        <v>0.8503023194482102</v>
+        <v>0.9164640079130342</v>
       </c>
       <c r="AI7">
-        <v>0.8942343126191101</v>
+        <v>0.9474103495402589</v>
       </c>
       <c r="AJ7">
-        <v>0.9027185281383667</v>
+        <v>0.9474103495402589</v>
       </c>
       <c r="AK7">
-        <v>0.9087591157741909</v>
+        <v>0.9474103495402589</v>
       </c>
       <c r="AL7">
-        <v>0.9277759207342764</v>
+        <v>0.9474103495402589</v>
       </c>
       <c r="AM7">
-        <v>0.9291242459862511</v>
+        <v>0.9474103495402589</v>
       </c>
       <c r="AN7">
-        <v>0.9828000219435797</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.9911636453870365</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.9961328784045671</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2974,85 +2974,85 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0797160888274963</v>
+        <v>0.0824123131832363</v>
       </c>
       <c r="F8">
-        <v>0.0797160888274963</v>
+        <v>0.0824123131832363</v>
       </c>
       <c r="G8">
-        <v>0.1364589239835715</v>
+        <v>0.133711913513492</v>
       </c>
       <c r="H8">
-        <v>0.1514355138465859</v>
+        <v>0.133711913513492</v>
       </c>
       <c r="I8">
-        <v>0.1514355138465859</v>
+        <v>0.133711913513492</v>
       </c>
       <c r="J8">
-        <v>0.1514355138465859</v>
+        <v>0.133711913513492</v>
       </c>
       <c r="K8">
-        <v>0.1514355138465859</v>
+        <v>0.133711913513492</v>
       </c>
       <c r="L8">
-        <v>0.2141523763661347</v>
+        <v>0.193102148309114</v>
       </c>
       <c r="M8">
-        <v>0.214657407731136</v>
+        <v>0.193102148309114</v>
       </c>
       <c r="N8">
-        <v>0.2581310760030517</v>
+        <v>0.2264312954780611</v>
       </c>
       <c r="O8">
-        <v>0.4025993590354838</v>
+        <v>0.3965376050674224</v>
       </c>
       <c r="P8">
-        <v>0.4025993590354838</v>
+        <v>0.3965376050674224</v>
       </c>
       <c r="Q8">
-        <v>0.4749794163046221</v>
+        <v>0.4690147194050755</v>
       </c>
       <c r="R8">
-        <v>0.4749794163046221</v>
+        <v>0.4690147194050755</v>
       </c>
       <c r="S8">
-        <v>0.6131529180373</v>
+        <v>0.6305959969788282</v>
       </c>
       <c r="T8">
-        <v>0.6503520639405435</v>
+        <v>0.6554275488337534</v>
       </c>
       <c r="U8">
-        <v>0.6663046692350048</v>
+        <v>0.6554275488337534</v>
       </c>
       <c r="V8">
-        <v>0.6663046692350048</v>
+        <v>0.6554275488337534</v>
       </c>
       <c r="W8">
-        <v>0.7000991387363126</v>
+        <v>0.6756481421903393</v>
       </c>
       <c r="X8">
-        <v>0.7000991387363126</v>
+        <v>0.6756481421903393</v>
       </c>
       <c r="Y8">
-        <v>0.7000991387363126</v>
+        <v>0.6756481421903393</v>
       </c>
       <c r="Z8">
-        <v>0.8094530013906408</v>
+        <v>0.7981989381442124</v>
       </c>
       <c r="AA8">
-        <v>0.9374488223954424</v>
+        <v>0.9459965670226281</v>
       </c>
       <c r="AB8">
-        <v>0.9374488223954424</v>
+        <v>0.9459965670226281</v>
       </c>
       <c r="AC8">
-        <v>0.9378998495438947</v>
+        <v>0.9459965670226281</v>
       </c>
       <c r="AD8">
-        <v>0.941260687276032</v>
+        <v>0.9459965670226281</v>
       </c>
       <c r="AE8">
-        <v>0.941260687276032</v>
+        <v>0.9459965670226281</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -3117,109 +3117,109 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1030620125115983</v>
+        <v>0.1855550709122531</v>
       </c>
       <c r="J9">
-        <v>0.1033357362567678</v>
+        <v>0.1855550709122531</v>
       </c>
       <c r="K9">
-        <v>0.1597040784338801</v>
+        <v>0.2525225610527131</v>
       </c>
       <c r="L9">
-        <v>0.1991141114061762</v>
+        <v>0.276421154527453</v>
       </c>
       <c r="M9">
-        <v>0.2107154700157177</v>
+        <v>0.276421154527453</v>
       </c>
       <c r="N9">
-        <v>0.2115626781494852</v>
+        <v>0.276421154527453</v>
       </c>
       <c r="O9">
-        <v>0.2167926672991699</v>
+        <v>0.276421154527453</v>
       </c>
       <c r="P9">
-        <v>0.2483906170499328</v>
+        <v>0.2804794560869667</v>
       </c>
       <c r="Q9">
-        <v>0.2997686670028564</v>
+        <v>0.3347731367373691</v>
       </c>
       <c r="R9">
-        <v>0.3139638762445942</v>
+        <v>0.3347731367373691</v>
       </c>
       <c r="S9">
-        <v>0.4309437666583285</v>
+        <v>0.5556753426696019</v>
       </c>
       <c r="T9">
-        <v>0.445698312984911</v>
+        <v>0.5556753426696019</v>
       </c>
       <c r="U9">
-        <v>0.4679463918256431</v>
+        <v>0.5556753426696019</v>
       </c>
       <c r="V9">
-        <v>0.5102374545666526</v>
+        <v>0.5868908668537041</v>
       </c>
       <c r="W9">
-        <v>0.5557211521331683</v>
+        <v>0.6262147028824832</v>
       </c>
       <c r="X9">
-        <v>0.6362627672626296</v>
+        <v>0.7545748815441131</v>
       </c>
       <c r="Y9">
-        <v>0.6447971284596876</v>
+        <v>0.7545748815441131</v>
       </c>
       <c r="Z9">
-        <v>0.6597946994297454</v>
+        <v>0.7545748815441131</v>
       </c>
       <c r="AA9">
-        <v>0.689362270904896</v>
+        <v>0.7545748815441131</v>
       </c>
       <c r="AB9">
-        <v>0.6895529235362441</v>
+        <v>0.7545748815441131</v>
       </c>
       <c r="AC9">
-        <v>0.7223528307397827</v>
+        <v>0.7616857858545831</v>
       </c>
       <c r="AD9">
-        <v>0.7472892692386699</v>
+        <v>0.7616857858545831</v>
       </c>
       <c r="AE9">
-        <v>0.8619892899942239</v>
+        <v>0.976797823112949</v>
       </c>
       <c r="AF9">
-        <v>0.8621641556378227</v>
+        <v>0.976797823112949</v>
       </c>
       <c r="AG9">
-        <v>0.8978366127220494</v>
+        <v>0.9912041218217796</v>
       </c>
       <c r="AH9">
-        <v>0.9013767425761525</v>
+        <v>0.9912041218217796</v>
       </c>
       <c r="AI9">
-        <v>0.9135751704743577</v>
+        <v>0.9912041218217796</v>
       </c>
       <c r="AJ9">
-        <v>0.9439934421940791</v>
+        <v>0.9922664035184573</v>
       </c>
       <c r="AK9">
-        <v>0.9770385334444353</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL9">
-        <v>0.9817166510799537</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM9">
-        <v>0.9829987163744862</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN9">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO9">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP9">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ9">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -3236,88 +3236,88 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.001217288928625649</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.001217288928625649</v>
       </c>
       <c r="G10">
-        <v>0.008919277991397634</v>
+        <v>0.01121271045009552</v>
       </c>
       <c r="H10">
-        <v>0.07957075215142016</v>
+        <v>0.08196343119402472</v>
       </c>
       <c r="I10">
-        <v>0.07957075215142016</v>
+        <v>0.08196343119402472</v>
       </c>
       <c r="J10">
-        <v>0.07957075215142016</v>
+        <v>0.08196343119402472</v>
       </c>
       <c r="K10">
-        <v>0.07957075215142016</v>
+        <v>0.08196343119402472</v>
       </c>
       <c r="L10">
-        <v>0.07957075215142016</v>
+        <v>0.08196343119402472</v>
       </c>
       <c r="M10">
-        <v>0.1418946464135122</v>
+        <v>0.1445183539605793</v>
       </c>
       <c r="N10">
-        <v>0.1418946464135122</v>
+        <v>0.1445183539605793</v>
       </c>
       <c r="O10">
-        <v>0.3292538713309265</v>
+        <v>0.3301299537744373</v>
       </c>
       <c r="P10">
-        <v>0.4228263356175356</v>
+        <v>0.423438945567268</v>
       </c>
       <c r="Q10">
-        <v>0.4228263356175356</v>
+        <v>0.423438945567268</v>
       </c>
       <c r="R10">
-        <v>0.5058120526084828</v>
+        <v>0.506328722757988</v>
       </c>
       <c r="S10">
-        <v>0.5058120526084828</v>
+        <v>0.506328722757988</v>
       </c>
       <c r="T10">
-        <v>0.7067085650618429</v>
+        <v>0.705263385834657</v>
       </c>
       <c r="U10">
-        <v>0.7067085650618429</v>
+        <v>0.705263385834657</v>
       </c>
       <c r="V10">
-        <v>0.7263545646452174</v>
+        <v>0.7258157811954571</v>
       </c>
       <c r="W10">
-        <v>0.7263545646452174</v>
+        <v>0.7258157811954571</v>
       </c>
       <c r="X10">
-        <v>0.7263545646452174</v>
+        <v>0.7258157811954571</v>
       </c>
       <c r="Y10">
-        <v>0.7263545646452174</v>
+        <v>0.7258157811954571</v>
       </c>
       <c r="Z10">
-        <v>0.7263545646452174</v>
+        <v>0.7258157811954571</v>
       </c>
       <c r="AA10">
-        <v>0.9351213827113134</v>
+        <v>0.9324962042183272</v>
       </c>
       <c r="AB10">
-        <v>0.9351213827113134</v>
+        <v>0.9324962042183272</v>
       </c>
       <c r="AC10">
-        <v>0.9374660290221293</v>
+        <v>0.9360210360018247</v>
       </c>
       <c r="AD10">
-        <v>0.9374660290221293</v>
+        <v>0.9360210360018247</v>
       </c>
       <c r="AE10">
-        <v>0.9429381290835472</v>
+        <v>0.9426238303431941</v>
       </c>
       <c r="AF10">
-        <v>0.9429381290835472</v>
+        <v>0.9426238303431941</v>
       </c>
       <c r="AG10">
         <v>1</v>
@@ -3388,97 +3388,97 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1068550028946053</v>
+        <v>0.1423231977632955</v>
       </c>
       <c r="M11">
-        <v>0.148973558463306</v>
+        <v>0.1647648283123817</v>
       </c>
       <c r="N11">
-        <v>0.2885046609835977</v>
+        <v>0.3675989468225964</v>
       </c>
       <c r="O11">
-        <v>0.3995584869096698</v>
+        <v>0.5176976946239296</v>
       </c>
       <c r="P11">
-        <v>0.4042684726784955</v>
+        <v>0.5176976946239296</v>
       </c>
       <c r="Q11">
-        <v>0.4097512080125764</v>
+        <v>0.5176976946239296</v>
       </c>
       <c r="R11">
-        <v>0.4111411262881556</v>
+        <v>0.5176976946239296</v>
       </c>
       <c r="S11">
-        <v>0.4139822844334535</v>
+        <v>0.5176976946239296</v>
       </c>
       <c r="T11">
-        <v>0.4697567408413042</v>
+        <v>0.5654278737718829</v>
       </c>
       <c r="U11">
-        <v>0.4699914778918554</v>
+        <v>0.5654278737718829</v>
       </c>
       <c r="V11">
-        <v>0.5981523338722358</v>
+        <v>0.7472061106092233</v>
       </c>
       <c r="W11">
-        <v>0.6588742505195947</v>
+        <v>0.8040981964070167</v>
       </c>
       <c r="X11">
-        <v>0.6724170334567687</v>
+        <v>0.8040981964070167</v>
       </c>
       <c r="Y11">
-        <v>0.7032079195790123</v>
+        <v>0.8055627912641489</v>
       </c>
       <c r="Z11">
-        <v>0.7074136600621838</v>
+        <v>0.8055627912641489</v>
       </c>
       <c r="AA11">
-        <v>0.7907682855159119</v>
+        <v>0.9043670411377839</v>
       </c>
       <c r="AB11">
-        <v>0.7927857838974444</v>
+        <v>0.9043670411377839</v>
       </c>
       <c r="AC11">
-        <v>0.8109831569803425</v>
+        <v>0.9043670411377839</v>
       </c>
       <c r="AD11">
-        <v>0.8151638456748325</v>
+        <v>0.9043670411377839</v>
       </c>
       <c r="AE11">
-        <v>0.817312192489711</v>
+        <v>0.9043670411377839</v>
       </c>
       <c r="AF11">
-        <v>0.8266873168533516</v>
+        <v>0.9043670411377839</v>
       </c>
       <c r="AG11">
-        <v>0.838900559575915</v>
+        <v>0.9043670411377839</v>
       </c>
       <c r="AH11">
-        <v>0.9205426772748104</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>0.9282059954163011</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>0.9413727186471709</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK11">
-        <v>0.9418970921218646</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL11">
-        <v>0.9553922465059534</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM11">
-        <v>0.9655383861215917</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN11">
-        <v>0.9922642269689798</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO11">
-        <v>0.9926564354626112</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP11">
-        <v>0.9932948025246235</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ11">
         <v>0.9999999999999999</v>
@@ -3543,34 +3543,34 @@
         <v>43</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5209645169192207</v>
       </c>
       <c r="F2">
-        <v>0.5511456088989003</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2">
         <v>54</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" t="s">
-        <v>66</v>
       </c>
       <c r="L2" t="s">
         <v>67</v>
@@ -3584,34 +3584,34 @@
         <v>44</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5773216685175715</v>
       </c>
       <c r="F3">
-        <v>0.5784828928792749</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3">
         <v>54</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
       </c>
       <c r="L3" t="s">
         <v>67</v>
@@ -3625,34 +3625,34 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5939243251937781</v>
       </c>
       <c r="F4">
-        <v>0.5063706543519867</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4">
         <v>54</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
       </c>
       <c r="L4" t="s">
         <v>67</v>
@@ -3666,34 +3666,34 @@
         <v>46</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5051635101693323</v>
       </c>
       <c r="F5">
-        <v>0.5151996147186336</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5">
         <v>54</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" t="s">
-        <v>66</v>
       </c>
       <c r="L5" t="s">
         <v>67</v>
@@ -3707,34 +3707,34 @@
         <v>47</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5793817584474718</v>
       </c>
       <c r="F6">
-        <v>0.5396370669656512</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6">
         <v>54</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" t="s">
-        <v>66</v>
       </c>
       <c r="L6" t="s">
         <v>67</v>
@@ -3748,34 +3748,34 @@
         <v>48</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5974784808065337</v>
+      </c>
+      <c r="F7">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5666368559111792</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>14</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7">
         <v>54</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
       </c>
       <c r="L7" t="s">
         <v>67</v>
@@ -3789,34 +3789,34 @@
         <v>49</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.6305959969788282</v>
+      </c>
+      <c r="F8">
         <v>18</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.6131529180373</v>
-      </c>
       <c r="G8">
+        <v>900</v>
+      </c>
+      <c r="H8">
         <v>16</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8">
         <v>54</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" t="s">
-        <v>66</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -3830,34 +3830,34 @@
         <v>50</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5556753426696019</v>
       </c>
       <c r="F9">
-        <v>0.5102374545666526</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9">
         <v>54</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
       </c>
       <c r="L9" t="s">
         <v>67</v>
@@ -3871,34 +3871,34 @@
         <v>51</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.001217288928625649</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.506328722757988</v>
+      </c>
+      <c r="F10">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5058120526084828</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10">
         <v>54</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" t="s">
-        <v>66</v>
       </c>
       <c r="L10" t="s">
         <v>67</v>
@@ -3912,34 +3912,34 @@
         <v>52</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5176976946239296</v>
       </c>
       <c r="F11">
-        <v>0.5981523338722358</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11">
         <v>54</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" t="s">
-        <v>66</v>
       </c>
       <c r="L11" t="s">
         <v>67</v>
@@ -4007,34 +4007,34 @@
         <v>43</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7202836133097668</v>
       </c>
       <c r="F2">
-        <v>0.7269607851828538</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2">
         <v>54</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" t="s">
-        <v>66</v>
       </c>
       <c r="L2" t="s">
         <v>67</v>
@@ -4048,34 +4048,34 @@
         <v>44</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7244763710273828</v>
       </c>
       <c r="F3">
-        <v>0.7562306111099146</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3">
         <v>54</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
       </c>
       <c r="L3" t="s">
         <v>67</v>
@@ -4089,34 +4089,34 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7340552686686843</v>
       </c>
       <c r="F4">
-        <v>0.7969706130159792</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4">
         <v>54</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
       </c>
       <c r="L4" t="s">
         <v>67</v>
@@ -4130,34 +4130,34 @@
         <v>46</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7082210723452844</v>
       </c>
       <c r="F5">
-        <v>0.709316910970457</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5">
         <v>54</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" t="s">
-        <v>66</v>
       </c>
       <c r="L5" t="s">
         <v>67</v>
@@ -4171,34 +4171,34 @@
         <v>47</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7566506888013524</v>
       </c>
       <c r="F6">
-        <v>0.7009881654194173</v>
+        <v>26</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6">
         <v>54</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" t="s">
-        <v>66</v>
       </c>
       <c r="L6" t="s">
         <v>67</v>
@@ -4212,34 +4212,34 @@
         <v>48</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7814840062994048</v>
       </c>
       <c r="F7">
-        <v>0.7208881534291197</v>
+        <v>26</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7">
         <v>54</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
       </c>
       <c r="L7" t="s">
         <v>67</v>
@@ -4253,34 +4253,34 @@
         <v>49</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7981989381442124</v>
       </c>
       <c r="F8">
-        <v>0.7000991387363126</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8">
         <v>54</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" t="s">
-        <v>66</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -4294,34 +4294,34 @@
         <v>50</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7545748815441131</v>
       </c>
       <c r="F9">
-        <v>0.7223528307397827</v>
+        <v>23</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9">
         <v>54</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
       </c>
       <c r="L9" t="s">
         <v>67</v>
@@ -4335,34 +4335,34 @@
         <v>51</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.001217288928625649</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10">
+        <v>0.705263385834657</v>
+      </c>
+      <c r="F10">
         <v>19</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7067085650618429</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>14</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10">
         <v>54</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" t="s">
-        <v>66</v>
       </c>
       <c r="L10" t="s">
         <v>67</v>
@@ -4376,34 +4376,34 @@
         <v>52</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7472061106092233</v>
       </c>
       <c r="F11">
-        <v>0.7032079195790123</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11">
         <v>54</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" t="s">
-        <v>66</v>
       </c>
       <c r="L11" t="s">
         <v>67</v>
@@ -4471,34 +4471,34 @@
         <v>43</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8424336298211968</v>
       </c>
       <c r="F2">
-        <v>0.8898558572475013</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2">
         <v>54</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" t="s">
-        <v>66</v>
       </c>
       <c r="L2" t="s">
         <v>67</v>
@@ -4512,34 +4512,34 @@
         <v>44</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8640359386174785</v>
       </c>
       <c r="F3">
-        <v>0.8330956574827926</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3">
         <v>54</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
       </c>
       <c r="L3" t="s">
         <v>67</v>
@@ -4553,34 +4553,34 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8727447492035121</v>
       </c>
       <c r="F4">
-        <v>0.8685026263119121</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4">
         <v>54</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
       </c>
       <c r="L4" t="s">
         <v>67</v>
@@ -4594,34 +4594,34 @@
         <v>46</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8343853613592846</v>
       </c>
       <c r="F5">
-        <v>0.8791820742490254</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5">
         <v>54</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" t="s">
-        <v>66</v>
       </c>
       <c r="L5" t="s">
         <v>67</v>
@@ -4635,34 +4635,34 @@
         <v>47</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
       <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <v>0.8918735526675526</v>
+      </c>
+      <c r="F6">
         <v>32</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8185800575321087</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>23</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6">
         <v>54</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" t="s">
-        <v>66</v>
       </c>
       <c r="L6" t="s">
         <v>67</v>
@@ -4676,34 +4676,34 @@
         <v>48</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>0.9164640079130342</v>
+      </c>
+      <c r="F7">
         <v>33</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8503023194482102</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>23</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7">
         <v>54</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
       </c>
       <c r="L7" t="s">
         <v>67</v>
@@ -4717,34 +4717,34 @@
         <v>49</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9459965670226281</v>
       </c>
       <c r="F8">
-        <v>0.8094530013906408</v>
+        <v>26</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8">
         <v>54</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" t="s">
-        <v>66</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -4758,34 +4758,34 @@
         <v>50</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>0.976797823112949</v>
+      </c>
+      <c r="F9">
         <v>30</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8619892899942239</v>
-      </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>24</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9">
         <v>54</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
       </c>
       <c r="L9" t="s">
         <v>67</v>
@@ -4799,34 +4799,34 @@
         <v>51</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.001217288928625649</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10">
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <v>0.9324962042183272</v>
+      </c>
+      <c r="F10">
         <v>26</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9351213827113134</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>21</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10">
         <v>54</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" t="s">
-        <v>66</v>
       </c>
       <c r="L10" t="s">
         <v>67</v>
@@ -4840,34 +4840,34 @@
         <v>52</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8040981964070167</v>
       </c>
       <c r="F11">
-        <v>0.8109831569803425</v>
+        <v>22</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11">
         <v>54</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" t="s">
-        <v>66</v>
       </c>
       <c r="L11" t="s">
         <v>67</v>
@@ -4935,34 +4935,34 @@
         <v>43</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.9128734536950605</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2">
         <v>54</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" t="s">
-        <v>66</v>
       </c>
       <c r="L2" t="s">
         <v>67</v>
@@ -4976,34 +4976,34 @@
         <v>44</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9084776356386538</v>
       </c>
       <c r="F3">
-        <v>0.9119195424602751</v>
+        <v>32</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3">
         <v>54</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
       </c>
       <c r="L3" t="s">
         <v>67</v>
@@ -5017,34 +5017,34 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9581856671913822</v>
       </c>
       <c r="F4">
-        <v>0.9122268353367659</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4">
         <v>54</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
       </c>
       <c r="L4" t="s">
         <v>67</v>
@@ -5058,34 +5058,34 @@
         <v>46</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9960945500963325</v>
       </c>
       <c r="F5">
-        <v>0.908861797236784</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5">
         <v>54</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" t="s">
-        <v>66</v>
       </c>
       <c r="L5" t="s">
         <v>67</v>
@@ -5099,34 +5099,34 @@
         <v>47</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9681246066854208</v>
       </c>
       <c r="F6">
-        <v>0.9140038695882011</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6">
         <v>54</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" t="s">
-        <v>66</v>
       </c>
       <c r="L6" t="s">
         <v>67</v>
@@ -5140,34 +5140,34 @@
         <v>48</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9164640079130342</v>
       </c>
       <c r="F7">
-        <v>0.9027185281383667</v>
+        <v>33</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7">
         <v>54</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
       </c>
       <c r="L7" t="s">
         <v>67</v>
@@ -5181,34 +5181,34 @@
         <v>49</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>0.9459965670226281</v>
+      </c>
+      <c r="F8">
         <v>26</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9374488223954424</v>
-      </c>
       <c r="G8">
+        <v>900</v>
+      </c>
+      <c r="H8">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8">
         <v>54</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" t="s">
-        <v>66</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -5222,34 +5222,34 @@
         <v>50</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.976797823112949</v>
       </c>
       <c r="F9">
-        <v>0.9013767425761525</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9">
         <v>54</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
       </c>
       <c r="L9" t="s">
         <v>67</v>
@@ -5263,34 +5263,34 @@
         <v>51</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.001217288928625649</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>0.9324962042183272</v>
+      </c>
+      <c r="F10">
         <v>26</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9351213827113134</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>21</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10">
         <v>54</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" t="s">
-        <v>66</v>
       </c>
       <c r="L10" t="s">
         <v>67</v>
@@ -5304,34 +5304,34 @@
         <v>52</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9043670411377839</v>
       </c>
       <c r="F11">
-        <v>0.9205426772748104</v>
+        <v>26</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11">
         <v>54</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" t="s">
-        <v>66</v>
       </c>
       <c r="L11" t="s">
         <v>67</v>
